--- a/resources/knolltextiles_info.xlsx
+++ b/resources/knolltextiles_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robcorp/dev/knoll/elf/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB81FE2-BC30-CA45-8B44-A1DEC09EFAF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D679B63-5236-BF47-900D-590D9AE06B83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{1F11F375-3004-1F48-989C-76518BD1F4C5}"/>
   </bookViews>
@@ -2223,10 +2223,10 @@
     <t>PartNum</t>
   </si>
   <si>
-    <t>EssntlSKUs</t>
-  </si>
-  <si>
     <t>PrimarySKU</t>
+  </si>
+  <si>
+    <t>EssntlSKUs2</t>
   </si>
 </sst>
 </file>
@@ -2292,14 +2292,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2329,112 +2323,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -2689,6 +2578,181 @@
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2703,18 +2767,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9497D342-DCF5-B04E-9D4D-FD0938593EF7}" name="Table1" displayName="Table1" ref="A1:F342" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9497D342-DCF5-B04E-9D4D-FD0938593EF7}" name="Table1" displayName="Table1" ref="A1:F342" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F342" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E277">
     <sortCondition ref="C1:C277"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{980A4DA0-9C12-0B4A-9BF9-1B973D26E59E}" name="Name" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{9B2A817D-33ED-5D4E-9066-410B45E6F3E1}" name="PartNum" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{91A6E380-4720-3940-AA02-8066DEB83A1A}" name="Grade" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{774630C4-2007-5342-951B-8076CFCAEC7D}" name="EssntlSKUs" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{F04D1E95-8EA1-CD4C-B219-7C4913638FCC}" name="PrimarySKU" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{C7C444B3-58AD-1844-9F79-6351BC694B8B}" name="Type" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{980A4DA0-9C12-0B4A-9BF9-1B973D26E59E}" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{9B2A817D-33ED-5D4E-9066-410B45E6F3E1}" name="PartNum" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{91A6E380-4720-3940-AA02-8066DEB83A1A}" name="Grade" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{774630C4-2007-5342-951B-8076CFCAEC7D}" name="EssntlSKUs2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F04D1E95-8EA1-CD4C-B219-7C4913638FCC}" name="PrimarySKU" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C7C444B3-58AD-1844-9F79-6351BC694B8B}" name="Type" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3019,5685 +3083,5721 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E1783B-53DF-424E-A880-BC591053FD08}">
   <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="3"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="7.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="67" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="170" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="204" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>18</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>11</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>5</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>5</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>4</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>2</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>9</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>6</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>3</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>6</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>5</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>6</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>2</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>7</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>3</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>4</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>7</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>4</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>1</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>10</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>10</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>7</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>3</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>5</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>8</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>4</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>3</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>4</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>5</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>6</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="5">
         <v>10</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="5">
         <v>4</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="5">
         <v>3</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>9</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>10</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>5</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>5</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>3</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>3</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>3</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <v>6</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="5">
         <v>2</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="5">
         <v>2</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>2</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="F65" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="5">
         <v>12</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="5">
         <v>3</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="5">
         <v>4</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="5">
         <v>10</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="5">
         <v>3</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="5">
         <v>4</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="5">
         <v>2</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="5">
         <v>8</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="5">
         <v>6</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="5">
         <v>3</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="5">
         <v>4</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="5">
         <v>3</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="5">
         <v>3</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="5">
         <v>3</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="5">
         <v>9</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="5">
         <v>11</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="5">
         <v>3</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="5">
         <v>3</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="5">
         <v>21</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="5">
         <v>5</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="5">
         <v>1</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="5">
         <v>2</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="5">
         <v>4</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="5">
         <v>5</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="5">
         <v>7</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="5">
         <v>13</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="5">
         <v>5</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="5">
         <v>4</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="5">
         <v>8</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="5">
         <v>28</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="5">
         <v>9</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="5">
         <v>3</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="5">
         <v>2</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="5">
         <v>5</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="5">
         <v>1</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="5">
         <v>3</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="5">
         <v>3</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="5">
         <v>4</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="5">
         <v>1</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="5">
         <v>1</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="5">
         <v>4</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="5">
         <v>5</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="5">
         <v>1</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="5">
         <v>50</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="5">
         <v>11</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="5">
         <v>5</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="5">
         <v>2</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="5">
         <v>1</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="5">
         <v>1</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="5">
         <v>8</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="5">
         <v>3</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="5">
         <v>4</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="5">
         <v>2</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="5">
         <v>3</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="5">
         <v>10</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="5">
         <v>1</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="5">
         <v>5</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="5">
         <v>2</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="5">
         <v>2</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="5">
         <v>1</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="5">
         <v>7</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="5">
         <v>5</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="5">
         <v>6</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="5">
         <v>1</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="5">
         <v>3</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="5">
         <v>13</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="5">
         <v>1</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="5">
         <v>2</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="5">
         <v>1</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="5">
         <v>1</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="5">
         <v>1</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="5">
         <v>1</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="5">
         <v>3</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="5">
         <v>4</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="5">
         <v>4</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="5">
         <v>7</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="5">
         <v>7</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="5">
         <v>3</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="5">
         <v>1</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="5">
         <v>4</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="5">
         <v>3</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="F155" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="5">
         <v>1</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="F156" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="5">
         <v>3</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F157" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="5">
         <v>1</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="F158" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="5">
         <v>1</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="F159" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161" s="5">
         <v>2</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="5">
         <v>5</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="F162" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="5">
         <v>1</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F163" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="5">
         <v>5</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="F164" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="5">
         <v>3</v>
       </c>
-      <c r="F165" s="4" t="s">
+      <c r="F165" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="5">
         <v>2</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="F166" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="F167" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F168" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="5">
         <v>3</v>
       </c>
-      <c r="F169" s="4" t="s">
+      <c r="F169" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="5">
         <v>3</v>
       </c>
-      <c r="F170" s="4" t="s">
+      <c r="F170" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E171" s="5">
         <v>5</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F171" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="5">
         <v>1</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F172" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E173" s="5">
         <v>2</v>
       </c>
-      <c r="F173" s="4" t="s">
+      <c r="F173" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E174" s="5">
         <v>5</v>
       </c>
-      <c r="F174" s="4" t="s">
+      <c r="F174" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E175" s="5">
         <v>1</v>
       </c>
-      <c r="F175" s="4" t="s">
+      <c r="F175" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="5">
         <v>4</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F176" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="5">
         <v>4</v>
       </c>
-      <c r="F177" s="4" t="s">
+      <c r="F177" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="5">
         <v>5</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F178" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="5">
         <v>7</v>
       </c>
-      <c r="F179" s="4" t="s">
+      <c r="F179" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="5">
         <v>4</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="F180" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="5">
         <v>4</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="F181" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E182" s="7">
+      <c r="E182" s="5">
         <v>5</v>
       </c>
-      <c r="F182" s="4" t="s">
+      <c r="F182" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F183" s="4" t="s">
+      <c r="F183" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E184" s="5">
         <v>1</v>
       </c>
-      <c r="F184" s="4" t="s">
+      <c r="F184" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E185" s="5">
         <v>4</v>
       </c>
-      <c r="F185" s="4" t="s">
+      <c r="F185" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E186" s="5">
         <v>1</v>
       </c>
-      <c r="F186" s="4" t="s">
+      <c r="F186" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E187" s="5">
         <v>5</v>
       </c>
-      <c r="F187" s="4" t="s">
+      <c r="F187" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E188" s="5">
         <v>1</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="F188" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E189" s="5">
         <v>1</v>
       </c>
-      <c r="F189" s="4" t="s">
+      <c r="F189" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E190" s="5">
         <v>5</v>
       </c>
-      <c r="F190" s="4" t="s">
+      <c r="F190" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E191" s="5">
         <v>2</v>
       </c>
-      <c r="F191" s="4" t="s">
+      <c r="F191" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E192" s="5">
         <v>2</v>
       </c>
-      <c r="F192" s="4" t="s">
+      <c r="F192" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E193" s="5">
         <v>8</v>
       </c>
-      <c r="F193" s="4" t="s">
+      <c r="F193" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E194" s="7">
+      <c r="E194" s="5">
         <v>4</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F194" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E195" s="7">
+      <c r="E195" s="5">
         <v>15</v>
       </c>
-      <c r="F195" s="4" t="s">
+      <c r="F195" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E196" s="5">
         <v>2</v>
       </c>
-      <c r="F196" s="4" t="s">
+      <c r="F196" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E197" s="5">
         <v>5</v>
       </c>
-      <c r="F197" s="4" t="s">
+      <c r="F197" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E198" s="5">
         <v>114</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F198" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E199" s="5">
         <v>6</v>
       </c>
-      <c r="F199" s="4" t="s">
+      <c r="F199" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E200" s="7">
+      <c r="E200" s="5">
         <v>7</v>
       </c>
-      <c r="F200" s="4" t="s">
+      <c r="F200" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E201" s="5">
         <v>4</v>
       </c>
-      <c r="F201" s="4" t="s">
+      <c r="F201" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E202" s="5">
         <v>4</v>
       </c>
-      <c r="F202" s="4" t="s">
+      <c r="F202" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F203" s="4" t="s">
+      <c r="F203" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E204" s="5">
         <v>4</v>
       </c>
-      <c r="F204" s="4" t="s">
+      <c r="F204" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E205" s="5">
         <v>7</v>
       </c>
-      <c r="F205" s="4" t="s">
+      <c r="F205" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E206" s="7">
+      <c r="E206" s="5">
         <v>1</v>
       </c>
-      <c r="F206" s="4" t="s">
+      <c r="F206" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E207" s="7">
+      <c r="E207" s="5">
         <v>3</v>
       </c>
-      <c r="F207" s="4" t="s">
+      <c r="F207" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E208" s="7">
+      <c r="E208" s="5">
         <v>2</v>
       </c>
-      <c r="F208" s="4" t="s">
+      <c r="F208" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="C209" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E209" s="7">
+      <c r="E209" s="5">
         <v>3</v>
       </c>
-      <c r="F209" s="4" t="s">
+      <c r="F209" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E210" s="7">
+      <c r="E210" s="5">
         <v>1</v>
       </c>
-      <c r="F210" s="4" t="s">
+      <c r="F210" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E211" s="7">
+      <c r="E211" s="5">
         <v>11</v>
       </c>
-      <c r="F211" s="4" t="s">
+      <c r="F211" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E212" s="7">
+      <c r="E212" s="5">
         <v>3</v>
       </c>
-      <c r="F212" s="4" t="s">
+      <c r="F212" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E213" s="7">
+      <c r="E213" s="5">
         <v>4</v>
       </c>
-      <c r="F213" s="4" t="s">
+      <c r="F213" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E214" s="7">
+      <c r="E214" s="5">
         <v>3</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="F214" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E215" s="7">
+      <c r="E215" s="5">
         <v>4</v>
       </c>
-      <c r="F215" s="4" t="s">
+      <c r="F215" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E216" s="7">
+      <c r="E216" s="5">
         <v>3</v>
       </c>
-      <c r="F216" s="4" t="s">
+      <c r="F216" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E217" s="7">
+      <c r="E217" s="5">
         <v>5</v>
       </c>
-      <c r="F217" s="4" t="s">
+      <c r="F217" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E218" s="7">
+      <c r="E218" s="5">
         <v>1</v>
       </c>
-      <c r="F218" s="4" t="s">
+      <c r="F218" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="C219" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E219" s="7">
+      <c r="E219" s="5">
         <v>3</v>
       </c>
-      <c r="F219" s="4" t="s">
+      <c r="F219" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E220" s="7">
+      <c r="E220" s="5">
         <v>12</v>
       </c>
-      <c r="F220" s="4" t="s">
+      <c r="F220" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E221" s="7">
+      <c r="E221" s="5">
         <v>5</v>
       </c>
-      <c r="F221" s="4" t="s">
+      <c r="F221" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E222" s="7">
+      <c r="E222" s="5">
         <v>3</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="F222" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E223" s="7">
+      <c r="E223" s="5">
         <v>3</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="F223" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E224" s="7">
+      <c r="E224" s="5">
         <v>2</v>
       </c>
-      <c r="F224" s="4" t="s">
+      <c r="F224" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C225" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E225" s="7">
+      <c r="E225" s="5">
         <v>1</v>
       </c>
-      <c r="F225" s="4" t="s">
+      <c r="F225" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C226" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E226" s="5">
         <v>4</v>
       </c>
-      <c r="F226" s="4" t="s">
+      <c r="F226" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C227" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E227" s="5">
         <v>4</v>
       </c>
-      <c r="F227" s="4" t="s">
+      <c r="F227" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E228" s="7">
+      <c r="E228" s="5">
         <v>2</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="F228" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C229" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E229" s="7">
+      <c r="E229" s="5">
         <v>4</v>
       </c>
-      <c r="F229" s="4" t="s">
+      <c r="F229" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C230" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E230" s="7">
+      <c r="E230" s="5">
         <v>15</v>
       </c>
-      <c r="F230" s="4" t="s">
+      <c r="F230" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E231" s="7">
+      <c r="E231" s="5">
         <v>1</v>
       </c>
-      <c r="F231" s="4" t="s">
+      <c r="F231" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="C232" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E232" s="5">
         <v>4</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="F232" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C233" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E233" s="7">
+      <c r="E233" s="5">
         <v>5</v>
       </c>
-      <c r="F233" s="4" t="s">
+      <c r="F233" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C234" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E234" s="7">
+      <c r="E234" s="5">
         <v>5</v>
       </c>
-      <c r="F234" s="4" t="s">
+      <c r="F234" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C235" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E235" s="7">
+      <c r="E235" s="5">
         <v>4</v>
       </c>
-      <c r="F235" s="4" t="s">
+      <c r="F235" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C236" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E236" s="5">
         <v>4</v>
       </c>
-      <c r="F236" s="4" t="s">
+      <c r="F236" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E237" s="5">
         <v>3</v>
       </c>
-      <c r="F237" s="4" t="s">
+      <c r="F237" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="C238" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E238" s="5">
         <v>3</v>
       </c>
-      <c r="F238" s="4" t="s">
+      <c r="F238" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="C239" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E239" s="5">
         <v>1</v>
       </c>
-      <c r="F239" s="4" t="s">
+      <c r="F239" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E240" s="5">
         <v>8</v>
       </c>
-      <c r="F240" s="4" t="s">
+      <c r="F240" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C241" s="5" t="s">
+      <c r="C241" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E241" s="5">
         <v>4</v>
       </c>
-      <c r="F241" s="4" t="s">
+      <c r="F241" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="C242" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E242" s="5">
         <v>37</v>
       </c>
-      <c r="F242" s="4" t="s">
+      <c r="F242" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C243" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E243" s="7">
+      <c r="E243" s="5">
         <v>2</v>
       </c>
-      <c r="F243" s="4" t="s">
+      <c r="F243" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="C244" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E244" s="7">
+      <c r="E244" s="5">
         <v>1</v>
       </c>
-      <c r="F244" s="4" t="s">
+      <c r="F244" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E245" s="5">
         <v>3</v>
       </c>
-      <c r="F245" s="4" t="s">
+      <c r="F245" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C246" s="5" t="s">
+      <c r="C246" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E246" s="7">
+      <c r="E246" s="5">
         <v>6</v>
       </c>
-      <c r="F246" s="4" t="s">
+      <c r="F246" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C247" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E247" s="7">
+      <c r="E247" s="5">
         <v>2</v>
       </c>
-      <c r="F247" s="4" t="s">
+      <c r="F247" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C248" s="5" t="s">
+      <c r="C248" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E248" s="7">
+      <c r="E248" s="5">
         <v>1</v>
       </c>
-      <c r="F248" s="4" t="s">
+      <c r="F248" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C249" s="5" t="s">
+      <c r="C249" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E249" s="7">
+      <c r="E249" s="5">
         <v>2</v>
       </c>
-      <c r="F249" s="4" t="s">
+      <c r="F249" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C250" s="5" t="s">
+      <c r="C250" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E250" s="7">
+      <c r="E250" s="5">
         <v>1</v>
       </c>
-      <c r="F250" s="4" t="s">
+      <c r="F250" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C251" s="5" t="s">
+      <c r="C251" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E251" s="7">
+      <c r="E251" s="5">
         <v>1</v>
       </c>
-      <c r="F251" s="4" t="s">
+      <c r="F251" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C252" s="5" t="s">
+      <c r="C252" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E252" s="7">
+      <c r="E252" s="5">
         <v>9</v>
       </c>
-      <c r="F252" s="4" t="s">
+      <c r="F252" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="C253" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E253" s="7">
+      <c r="E253" s="5">
         <v>3</v>
       </c>
-      <c r="F253" s="4" t="s">
+      <c r="F253" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="C254" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E254" s="7">
+      <c r="E254" s="5">
         <v>2</v>
       </c>
-      <c r="F254" s="4" t="s">
+      <c r="F254" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C255" s="5" t="s">
+      <c r="C255" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E255" s="7">
+      <c r="E255" s="5">
         <v>1</v>
       </c>
-      <c r="F255" s="4" t="s">
+      <c r="F255" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C256" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E256" s="7">
+      <c r="E256" s="5">
         <v>3</v>
       </c>
-      <c r="F256" s="4" t="s">
+      <c r="F256" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C257" s="5" t="s">
+      <c r="C257" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E257" s="7">
+      <c r="E257" s="5">
         <v>19</v>
       </c>
-      <c r="F257" s="4" t="s">
+      <c r="F257" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="C258" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E258" s="7">
+      <c r="E258" s="5">
         <v>4</v>
       </c>
-      <c r="F258" s="4" t="s">
+      <c r="F258" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E259" s="7">
+      <c r="E259" s="5">
         <v>2</v>
       </c>
-      <c r="F259" s="4" t="s">
+      <c r="F259" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C260" s="5" t="s">
+      <c r="C260" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E260" s="7">
+      <c r="E260" s="5">
         <v>3</v>
       </c>
-      <c r="F260" s="4" t="s">
+      <c r="F260" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C261" s="5" t="s">
+      <c r="C261" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E261" s="7">
+      <c r="E261" s="5">
         <v>5</v>
       </c>
-      <c r="F261" s="4" t="s">
+      <c r="F261" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="C262" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E262" s="7">
+      <c r="E262" s="5">
         <v>4</v>
       </c>
-      <c r="F262" s="4" t="s">
+      <c r="F262" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C263" s="5" t="s">
+      <c r="C263" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E263" s="7">
+      <c r="E263" s="5">
         <v>3</v>
       </c>
-      <c r="F263" s="4" t="s">
+      <c r="F263" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C264" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E264" s="7">
+      <c r="E264" s="5">
         <v>1</v>
       </c>
-      <c r="F264" s="4" t="s">
+      <c r="F264" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C265" s="5" t="s">
+      <c r="C265" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E265" s="7">
+      <c r="E265" s="5">
         <v>83</v>
       </c>
-      <c r="F265" s="4" t="s">
+      <c r="F265" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C266" s="5" t="s">
+      <c r="C266" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E266" s="7">
+      <c r="E266" s="5">
         <v>4</v>
       </c>
-      <c r="F266" s="4" t="s">
+      <c r="F266" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C267" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E267" s="7">
+      <c r="E267" s="5">
         <v>3</v>
       </c>
-      <c r="F267" s="4" t="s">
+      <c r="F267" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C268" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E268" s="7">
+      <c r="E268" s="5">
         <v>6</v>
       </c>
-      <c r="F268" s="4" t="s">
+      <c r="F268" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C269" s="5" t="s">
+      <c r="C269" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E269" s="7">
+      <c r="E269" s="5">
         <v>1</v>
       </c>
-      <c r="F269" s="4" t="s">
+      <c r="F269" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C270" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E270" s="7">
+      <c r="E270" s="5">
         <v>3</v>
       </c>
-      <c r="F270" s="4" t="s">
+      <c r="F270" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C271" s="5" t="s">
+      <c r="C271" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E271" s="7">
+      <c r="E271" s="5">
         <v>1</v>
       </c>
-      <c r="F271" s="4" t="s">
+      <c r="F271" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C272" s="5" t="s">
+      <c r="C272" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F272" s="4" t="s">
+      <c r="F272" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C273" s="5" t="s">
+      <c r="C273" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E273" s="7">
+      <c r="E273" s="5">
         <v>3</v>
       </c>
-      <c r="F273" s="4" t="s">
+      <c r="F273" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C274" s="5" t="s">
+      <c r="C274" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E274" s="7">
+      <c r="E274" s="5">
         <v>3</v>
       </c>
-      <c r="F274" s="4" t="s">
+      <c r="F274" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="C275" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E275" s="7">
+      <c r="E275" s="5">
         <v>1</v>
       </c>
-      <c r="F275" s="4" t="s">
+      <c r="F275" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C276" s="5" t="s">
+      <c r="C276" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E276" s="7">
+      <c r="E276" s="5">
         <v>4</v>
       </c>
-      <c r="F276" s="4" t="s">
+      <c r="F276" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C277" s="5" t="s">
+      <c r="C277" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E277" s="7">
+      <c r="E277" s="5">
         <v>1</v>
       </c>
-      <c r="F277" s="4" t="s">
+      <c r="F277" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C278" s="5" t="s">
+      <c r="C278" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E278" s="7">
+      <c r="E278" s="5">
         <v>2</v>
       </c>
-      <c r="F278" s="4" t="s">
+      <c r="F278" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C279" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E279" s="7">
+      <c r="E279" s="5">
         <v>1</v>
       </c>
-      <c r="F279" s="4" t="s">
+      <c r="F279" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F280" s="4" t="s">
+      <c r="F280" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F281" s="4" t="s">
+      <c r="F281" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F282" s="4" t="s">
+      <c r="F282" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F283" s="4" t="s">
+      <c r="F283" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F284" s="4" t="s">
+      <c r="F284" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F285" s="4" t="s">
+      <c r="F285" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C286" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F286" s="4" t="s">
+      <c r="F286" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F287" s="4" t="s">
+      <c r="F287" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C288" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F288" s="4" t="s">
+      <c r="F288" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C289" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="F289" s="4" t="s">
+      <c r="F289" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C290" s="8" t="s">
+      <c r="C290" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F290" s="4" t="s">
+      <c r="F290" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C291" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="F291" s="4" t="s">
+      <c r="F291" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="C292" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F292" s="4" t="s">
+      <c r="F292" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F293" s="4" t="s">
+      <c r="F293" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F294" s="4" t="s">
+      <c r="F294" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F295" s="4" t="s">
+      <c r="F295" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F296" s="4" t="s">
+      <c r="F296" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F297" s="4" t="s">
+      <c r="F297" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F298" s="4" t="s">
+      <c r="F298" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C299" s="8" t="s">
+      <c r="C299" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F299" s="4" t="s">
+      <c r="F299" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C300" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F300" s="4" t="s">
+      <c r="F300" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F301" s="4" t="s">
+      <c r="F301" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C302" s="8" t="s">
+      <c r="C302" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F302" s="4" t="s">
+      <c r="F302" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C303" s="8" t="s">
+      <c r="C303" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F303" s="4" t="s">
+      <c r="F303" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F304" s="4" t="s">
+      <c r="F304" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F305" s="4" t="s">
+      <c r="F305" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F306" s="4" t="s">
+      <c r="F306" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F307" s="4" t="s">
+      <c r="F307" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="F308" s="4" t="s">
+      <c r="F308" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C309" s="8" t="s">
+      <c r="C309" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F309" s="4" t="s">
+      <c r="F309" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C310" s="5" t="s">
+      <c r="C310" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F310" s="4" t="s">
+      <c r="F310" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C311" s="8" t="s">
+      <c r="C311" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F311" s="4" t="s">
+      <c r="F311" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C312" s="8" t="s">
+      <c r="C312" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F312" s="4" t="s">
+      <c r="F312" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F313" s="4" t="s">
+      <c r="F313" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C314" s="8" t="s">
+      <c r="C314" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F314" s="4" t="s">
+      <c r="F314" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C315" s="8" t="s">
+      <c r="C315" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F315" s="4" t="s">
+      <c r="F315" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C316" s="8" t="s">
+      <c r="C316" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F316" s="4" t="s">
+      <c r="F316" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C317" s="8" t="s">
+      <c r="C317" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F317" s="4" t="s">
+      <c r="F317" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F318" s="4" t="s">
+      <c r="F318" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F319" s="4" t="s">
+      <c r="F319" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C320" s="8" t="s">
+      <c r="C320" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="F320" s="4" t="s">
+      <c r="F320" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C321" s="8" t="s">
+      <c r="C321" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F321" s="4" t="s">
+      <c r="F321" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="F322" s="4" t="s">
+      <c r="F322" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C323" s="8" t="s">
+      <c r="C323" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F323" s="4" t="s">
+      <c r="F323" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F324" s="4" t="s">
+      <c r="F324" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C325" s="8" t="s">
+      <c r="C325" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F325" s="4" t="s">
+      <c r="F325" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C326" s="8" t="s">
+      <c r="C326" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F326" s="4" t="s">
+      <c r="F326" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C327" s="8" t="s">
+      <c r="C327" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F327" s="4" t="s">
+      <c r="F327" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C328" s="8" t="s">
+      <c r="C328" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F328" s="4" t="s">
+      <c r="F328" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C329" s="8" t="s">
+      <c r="C329" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F329" s="4" t="s">
+      <c r="F329" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C330" s="8" t="s">
+      <c r="C330" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F330" s="4" t="s">
+      <c r="F330" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C331" s="8" t="s">
+      <c r="C331" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F331" s="4" t="s">
+      <c r="F331" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C332" s="8" t="s">
+      <c r="C332" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F332" s="4" t="s">
+      <c r="F332" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C333" s="8" t="s">
+      <c r="C333" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F333" s="4" t="s">
+      <c r="F333" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C334" s="8" t="s">
+      <c r="C334" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F334" s="4" t="s">
+      <c r="F334" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C335" s="8" t="s">
+      <c r="C335" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F335" s="4" t="s">
+      <c r="F335" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C336" s="8" t="s">
+      <c r="C336" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F336" s="4" t="s">
+      <c r="F336" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C337" s="8" t="s">
+      <c r="C337" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F337" s="4" t="s">
+      <c r="F337" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C338" s="8" t="s">
+      <c r="C338" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F338" s="4" t="s">
+      <c r="F338" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C339" s="8" t="s">
+      <c r="C339" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="F339" s="4" t="s">
+      <c r="F339" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C340" s="8" t="s">
+      <c r="C340" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F340" s="4" t="s">
+      <c r="F340" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C341" s="5" t="s">
+      <c r="C341" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F341" s="4" t="s">
+      <c r="F341" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="4" t="s">
+      <c r="A342" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="B342" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C342" s="5"/>
-      <c r="F342" s="4"/>
+      <c r="C342" s="3"/>
+      <c r="F342" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 D2:E91 D92:D93 D94:E277 A2:B310 A278:E310 A342:E1048576">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+  <conditionalFormatting sqref="D2:E91 D92:D93 D94:E277 A2:B310 A278:E310 A342:E1048576">
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 D2:E91 D92:D93 D94:E277 A278:E310 A2:C310 A342:E1048576">
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+  <conditionalFormatting sqref="D2:E91 D92:D93 D94:E277 A278:E310 A2:C310 A342:E1048576">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A311:E341">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
+      <formula>"Limited Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A311:E341">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+      <formula>"Limited Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
@@ -8708,7 +8808,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A311:E341">
+  <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -8716,64 +8816,64 @@
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"Limited Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
-      <formula>"Limited Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>"Limited Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>"Limited Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
@@ -8784,7 +8884,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
+  <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -8793,6 +8893,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/resources/knolltextiles_info.xlsx
+++ b/resources/knolltextiles_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robcorp/dev/knoll/elf/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA966DA-5FB9-3848-BD20-D9B45F766140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE46527B-EED9-7748-B5CB-9F924235A6EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1F11F375-3004-1F48-989C-76518BD1F4C5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="694">
   <si>
     <t>Alignment</t>
   </si>
@@ -1143,15 +1143,9 @@
     <t>K1650</t>
   </si>
   <si>
-    <t>Backdrop</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>W302</t>
-  </si>
-  <si>
     <t>K21251, K21252, K21253, K21254, K21255, K21256, K21257, K21258, K21259, K212510, K212511, K212512, K212513, K212514</t>
   </si>
   <si>
@@ -1215,9 +1209,6 @@
     <t>K787</t>
   </si>
   <si>
-    <t>K891</t>
-  </si>
-  <si>
     <t>K20511, K20512, K20513, K20514, K20515, K20516, K20517, K20518, K20519, K205110, K205111, K205112</t>
   </si>
   <si>
@@ -1281,12 +1272,6 @@
     <t>K1378</t>
   </si>
   <si>
-    <t>Decade</t>
-  </si>
-  <si>
-    <t>K1053</t>
-  </si>
-  <si>
     <t>Paradigm</t>
   </si>
   <si>
@@ -1311,12 +1296,6 @@
     <t>K19251, K19252, K19253, K19254, K19255, K19256, K19257, K19258, K19259, K192510, K192511, K192512, K192513, K192514, K192515, K192516, K192517, K192518, K192519, K192520, K192521, K192522, K192523, K192524, K192525, K192526, K192527, K192528, K192529, K192530, K192531, K192532, K192533, K192534, K192535, K192536, K192537, K192538, K192539, K192540, K192541, K192542, K192543, K192544, K192545, K192546, K192547, K192548, K192549, K192550, K192551, K192552, K192553, K192554, K192555, K192556, K192557, K192558, K192558, K192559, K192560, K192561</t>
   </si>
   <si>
-    <t>Digital Tape</t>
-  </si>
-  <si>
-    <t>W304</t>
-  </si>
-  <si>
     <t>K12981, K12982, K12983, K12984, K12985, K12986, K12987, K12988, K12989, K129810, K129811, K129812, K129813, K129814</t>
   </si>
   <si>
@@ -1338,24 +1317,12 @@
     <t>K10751, K10752, K10753, K10754, K10755, K10756, K10757, K10758, K10759, K107510, K107511, K107512</t>
   </si>
   <si>
-    <t>Starry Night</t>
-  </si>
-  <si>
-    <t>K529</t>
-  </si>
-  <si>
     <t>Empire Stripe</t>
   </si>
   <si>
     <t>K1025</t>
   </si>
   <si>
-    <t>Enmesh</t>
-  </si>
-  <si>
-    <t>K1092</t>
-  </si>
-  <si>
     <t>Entourage</t>
   </si>
   <si>
@@ -1371,12 +1338,6 @@
     <t>HC1122</t>
   </si>
   <si>
-    <t>Fast Forward</t>
-  </si>
-  <si>
-    <t>W301</t>
-  </si>
-  <si>
     <t>Feeling Plaid</t>
   </si>
   <si>
@@ -1407,12 +1368,6 @@
     <t>K1448</t>
   </si>
   <si>
-    <t>Autobahn</t>
-  </si>
-  <si>
-    <t>K491</t>
-  </si>
-  <si>
     <t>Heavy Metal</t>
   </si>
   <si>
@@ -1434,27 +1389,9 @@
     <t>K18851, K18853, K18854, K18855, K18856, K18857</t>
   </si>
   <si>
-    <t>Echo</t>
-  </si>
-  <si>
-    <t>K1019</t>
-  </si>
-  <si>
-    <t>In The Loop</t>
-  </si>
-  <si>
-    <t>K490</t>
-  </si>
-  <si>
     <t>K17651, K17652, K17653, K17654, K17655, K17656, K17657</t>
   </si>
   <si>
-    <t>Kaleidoscope CR</t>
-  </si>
-  <si>
-    <t>HC1186</t>
-  </si>
-  <si>
     <t>Kinabalu</t>
   </si>
   <si>
@@ -1524,12 +1461,6 @@
     <t>K1922</t>
   </si>
   <si>
-    <t>Metaphor</t>
-  </si>
-  <si>
-    <t>K612</t>
-  </si>
-  <si>
     <t>Monarch</t>
   </si>
   <si>
@@ -1542,12 +1473,6 @@
     <t>HC1002</t>
   </si>
   <si>
-    <t>Satellite</t>
-  </si>
-  <si>
-    <t>K503</t>
-  </si>
-  <si>
     <t>Noble</t>
   </si>
   <si>
@@ -1578,24 +1503,12 @@
     <t>K2087</t>
   </si>
   <si>
-    <t>Luberon</t>
-  </si>
-  <si>
-    <t>K676</t>
-  </si>
-  <si>
     <t>Presto</t>
   </si>
   <si>
     <t>K1000</t>
   </si>
   <si>
-    <t>Ravello</t>
-  </si>
-  <si>
-    <t>K1420</t>
-  </si>
-  <si>
     <t>Regard CR</t>
   </si>
   <si>
@@ -1608,12 +1521,6 @@
     <t>K2199</t>
   </si>
   <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>K377</t>
-  </si>
-  <si>
     <t>Sahara</t>
   </si>
   <si>
@@ -1632,12 +1539,6 @@
     <t>K1551</t>
   </si>
   <si>
-    <t>Satin Chisel</t>
-  </si>
-  <si>
-    <t>K487</t>
-  </si>
-  <si>
     <t>Sequin CR</t>
   </si>
   <si>
@@ -1662,12 +1563,6 @@
     <t>K1458</t>
   </si>
   <si>
-    <t>Spinoff Nuance</t>
-  </si>
-  <si>
-    <t>K319</t>
-  </si>
-  <si>
     <t>Stepping Stones</t>
   </si>
   <si>
@@ -1785,9 +1680,6 @@
     <t>1A</t>
   </si>
   <si>
-    <t xml:space="preserve">Digit </t>
-  </si>
-  <si>
     <t>Gezelle</t>
   </si>
   <si>
@@ -1929,9 +1821,6 @@
     <t>Arezzo</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Andes</t>
   </si>
   <si>
@@ -2202,12 +2091,6 @@
     <t>PERFVZ</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
     <t>Striae Stripe</t>
   </si>
   <si>
@@ -2227,6 +2110,9 @@
   </si>
   <si>
     <t>PrimarySKU</t>
+  </si>
+  <si>
+    <t>K1827</t>
   </si>
 </sst>
 </file>
@@ -2554,10 +2440,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9497D342-DCF5-B04E-9D4D-FD0938593EF7}" name="Table1" displayName="Table1" ref="A1:F342" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:F342" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F342">
-    <sortCondition ref="C1:C342"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9497D342-DCF5-B04E-9D4D-FD0938593EF7}" name="Table1" displayName="Table1" ref="A1:F323" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:F323" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F323">
+    <sortCondition ref="C1:C323"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{980A4DA0-9C12-0B4A-9BF9-1B973D26E59E}" name="Name" dataDxfId="15"/>
@@ -2869,7 +2755,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E1783B-53DF-424E-A880-BC591053FD08}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F342"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2884,22 +2770,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>728</v>
+        <v>689</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>729</v>
+        <v>690</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>350</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>730</v>
+        <v>691</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>731</v>
+        <v>692</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>669</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2916,183 +2802,180 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>378</v>
-      </c>
       <c r="E3" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>1</v>
+        <v>508</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>174</v>
+        <v>509</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E4" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>582</v>
+        <v>395</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="B6" s="5" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>423</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E7" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="E8" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="E9" s="8">
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="E10" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>429</v>
+        <v>547</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>430</v>
+        <v>175</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E11" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>351</v>
@@ -3101,356 +2984,365 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E13" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>374</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="E14" s="8">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D15" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="E15" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>497</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>498</v>
+        <v>182</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="E16" s="8">
+        <v>5</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>500</v>
+        <v>183</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E17" s="8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>363</v>
+        <v>520</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>364</v>
+        <v>521</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="E18" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E19" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E20" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>517</v>
+        <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>518</v>
+        <v>184</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D21" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="E21" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>542</v>
+        <v>177</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D22" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="E22" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>10</v>
+        <v>476</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>184</v>
+        <v>477</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="E23" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>556</v>
+        <v>180</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D24" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="E24" s="8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E25" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>186</v>
+        <v>539</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>583</v>
+        <v>370</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E27" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>371</v>
+      <c r="E28" s="8">
+        <v>2</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>381</v>
+        <v>486</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E29" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E30" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E31" s="8">
         <v>2</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>383</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>384</v>
+        <v>231</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>385</v>
+        <v>540</v>
       </c>
       <c r="E32" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -3461,1243 +3353,1270 @@
         <v>190</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E33" s="8">
         <v>3</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E34" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E35" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>405</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>406</v>
+        <v>204</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>408</v>
       </c>
       <c r="E36" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E37" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>407</v>
+        <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>408</v>
+        <v>210</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E38" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>584</v>
+        <v>40</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>394</v>
+        <v>215</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="E40" s="8">
+        <v>3</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>426</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>427</v>
+        <v>218</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="E42" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E43" s="8">
         <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="E44" s="8">
+        <v>3</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="E45" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>452</v>
+        <v>532</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E46" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>454</v>
+        <v>53</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>455</v>
+        <v>228</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E47" s="8">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="8">
         <v>4</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="E48" s="8">
-        <v>3</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E49" s="8">
         <v>4</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>26</v>
+        <v>441</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E50" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E51" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>727</v>
+        <v>28</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E52" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="E53" s="8">
         <v>4</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="E54" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="E55" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E56" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E57" s="8">
         <v>5</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="E58" s="8">
         <v>5</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E59" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E60" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E61" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E62" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E63" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>511</v>
+        <v>13</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>512</v>
+        <v>187</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E64" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E65" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="E66" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E67" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E68" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="E69" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E70" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="E71" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E72" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>46</v>
+        <v>439</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>221</v>
+        <v>440</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="E73" s="8">
         <v>8</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>543</v>
+        <v>46</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>544</v>
+        <v>221</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E74" s="8">
+        <v>8</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E75" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>435</v>
+        <v>52</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>436</v>
+        <v>227</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="E76" s="8">
+        <v>9</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>48</v>
+        <v>404</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E77" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>443</v>
+        <v>370</v>
       </c>
       <c r="E78" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>50</v>
+        <v>688</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>406</v>
       </c>
       <c r="E79" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>549</v>
+        <v>31</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>550</v>
+        <v>206</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E80" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="E81" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>227</v>
+        <v>531</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E82" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>565</v>
+        <v>39</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>566</v>
+        <v>214</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="E83" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E84" s="8">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="E85" s="8">
-        <v>3</v>
+        <v>370</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>548</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>54</v>
+        <v>377</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>229</v>
+        <v>378</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E86" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>571</v>
+        <v>66</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>572</v>
+        <v>241</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E87" s="8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>55</v>
+        <v>433</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E88" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>573</v>
+        <v>68</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>574</v>
+        <v>243</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E89" s="8">
         <v>1</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>575</v>
+        <v>452</v>
       </c>
       <c r="E90" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E91" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>457</v>
+        <v>251</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E92" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>58</v>
+        <v>484</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>233</v>
+        <v>485</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="E93" s="8">
+        <v>1</v>
+      </c>
       <c r="F93" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="E94" s="8">
+        <v>1</v>
+      </c>
       <c r="F94" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>367</v>
+        <v>502</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>369</v>
+        <v>503</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E95" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>375</v>
+        <v>462</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E96" s="8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>379</v>
+        <v>463</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>380</v>
+        <v>464</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="E97" s="8">
+        <v>1</v>
+      </c>
       <c r="F97" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>59</v>
+        <v>510</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>234</v>
+        <v>511</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E98" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E99" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E100" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>62</v>
+        <v>541</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>237</v>
+        <v>542</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="E101" s="8">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>63</v>
+        <v>424</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>238</v>
+        <v>425</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E102" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E103" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="E104" s="8">
+        <v>2</v>
+      </c>
       <c r="F104" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>368</v>
@@ -4706,66 +4625,66 @@
         <v>2</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>65</v>
+        <v>492</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>240</v>
+        <v>493</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>466</v>
-      </c>
       <c r="E106" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E107" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>467</v>
+        <v>64</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>468</v>
+        <v>239</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="E108" s="8">
+        <v>3</v>
+      </c>
       <c r="F108" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>368</v>
@@ -4774,29 +4693,32 @@
         <v>3</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="E110" s="8">
+        <v>3</v>
+      </c>
       <c r="F110" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>442</v>
+        <v>252</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>368</v>
@@ -4805,1848 +4727,1869 @@
         <v>3</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>67</v>
+        <v>480</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>242</v>
+        <v>481</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E112" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E113" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E114" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E115" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E116" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="E117" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E118" s="8">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>473</v>
+        <v>253</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="E119" s="8">
+        <v>4</v>
+      </c>
       <c r="F119" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E120" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E121" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E122" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E123" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D124" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="E124" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>486</v>
+        <v>70</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>487</v>
+        <v>245</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="E125" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>252</v>
+        <v>460</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E126" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E127" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E128" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>506</v>
+        <v>257</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E129" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E130" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>509</v>
+        <v>372</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>510</v>
+        <v>373</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E131" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>255</v>
+        <v>497</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E132" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E133" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>522</v>
+        <v>236</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E134" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D135" s="7" t="s">
+        <v>467</v>
+      </c>
       <c r="E135" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>527</v>
+        <v>63</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>528</v>
+        <v>238</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E136" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>530</v>
+        <v>254</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E137" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E138" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>535</v>
+        <v>58</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>536</v>
+        <v>233</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E139" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>539</v>
+        <v>83</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>540</v>
+        <v>258</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E140" s="8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D141" s="7" t="s">
+        <v>450</v>
+      </c>
       <c r="E141" s="8">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>482</v>
+        <v>72</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>483</v>
+        <v>247</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E142" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>84</v>
+        <v>470</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>259</v>
+        <v>471</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E143" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>484</v>
+        <v>94</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>485</v>
+        <v>269</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E144" s="8">
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>546</v>
+        <v>449</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E145" s="8">
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E146" s="8">
         <v>1</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>86</v>
+        <v>543</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>261</v>
+        <v>544</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E147" s="8">
         <v>1</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E148" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E149" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>489</v>
+        <v>92</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>490</v>
+        <v>267</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E150" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E151" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E152" s="8">
         <v>3</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>576</v>
+        <v>102</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>577</v>
+        <v>277</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E153" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="E154" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E155" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>491</v>
+        <v>97</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>492</v>
+        <v>272</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E156" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E157" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E158" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E159" s="8">
         <v>1</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E160" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>469</v>
+        <v>115</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
+      </c>
+      <c r="E161" s="8">
+        <v>1</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E162" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E163" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E164" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>99</v>
+        <v>504</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>274</v>
+        <v>505</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E165" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E166" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E167" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>503</v>
+        <v>108</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>504</v>
+        <v>283</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
+      </c>
+      <c r="E168" s="8">
+        <v>4</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>533</v>
+        <v>110</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>534</v>
+        <v>285</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
+      </c>
+      <c r="E169" s="8">
+        <v>4</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E170" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E171" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E172" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>578</v>
+        <v>106</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>579</v>
+        <v>281</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E173" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E174" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E175" s="8">
         <v>5</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>422</v>
+        <v>294</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E176" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E177" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>108</v>
+        <v>522</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>283</v>
+        <v>523</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E178" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E179" s="8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E180" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E181" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>112</v>
+        <v>526</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>287</v>
+        <v>527</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E182" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>515</v>
+        <v>123</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>516</v>
+        <v>298</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
+      </c>
+      <c r="E183" s="8">
+        <v>2</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>113</v>
+        <v>545</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>288</v>
+        <v>546</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E184" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>114</v>
+        <v>500</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>289</v>
+        <v>501</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E185" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E186" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E187" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>117</v>
+        <v>512</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>292</v>
+        <v>513</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E188" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E189" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>119</v>
+        <v>409</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E190" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E191" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E192" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>557</v>
+        <v>133</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E193" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>121</v>
+        <v>518</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>296</v>
+        <v>519</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E194" s="8">
         <v>4</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E195" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E196" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>124</v>
+        <v>393</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E197" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>391</v>
+        <v>125</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E198" s="8">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>397</v>
+        <v>302</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E199" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E200" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E201" s="8">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E202" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>525</v>
+        <v>139</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>526</v>
+        <v>314</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
+      </c>
+      <c r="E203" s="8">
+        <v>1</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E204" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E205" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>128</v>
+        <v>359</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E206" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>531</v>
+        <v>435</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>532</v>
+        <v>436</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E207" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E208" s="8">
         <v>2</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>129</v>
+        <v>516</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>304</v>
+        <v>517</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E209" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E210" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E211" s="8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>132</v>
+        <v>357</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E212" s="8">
         <v>3</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>133</v>
+        <v>488</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>308</v>
+        <v>489</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E213" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>547</v>
+        <v>147</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>548</v>
+        <v>322</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E214" s="8">
         <v>3</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>553</v>
+        <v>140</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>554</v>
+        <v>315</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E215" s="8">
         <v>4</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E216" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E217" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>561</v>
+        <v>453</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>562</v>
+        <v>454</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E218" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>136</v>
+        <v>474</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>311</v>
+        <v>475</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E219" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E220" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -6663,1874 +6606,1559 @@
         <v>5</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>313</v>
+        <v>456</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E222" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>357</v>
+        <v>145</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E223" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>359</v>
+        <v>686</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>360</v>
+        <v>693</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E224" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>631</v>
+        <v>149</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>613</v>
+        <v>324</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E225" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E226" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E227" s="8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>141</v>
+        <v>687</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E228" s="8">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>448</v>
+        <v>150</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>449</v>
+        <v>326</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E229" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E230" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>630</v>
+        <v>549</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>612</v>
+        <v>331</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E231" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E232" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>144</v>
+        <v>399</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>319</v>
+        <v>401</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E233" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>474</v>
+        <v>154</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>475</v>
+        <v>330</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E234" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>476</v>
+        <v>157</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>477</v>
+        <v>334</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E235" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E236" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>495</v>
+        <v>156</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>496</v>
+        <v>333</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E237" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E238" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E239" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E240" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E241" s="8">
         <v>1</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E242" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>725</v>
+        <v>168</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E243" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>726</v>
+        <v>524</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E244" s="8">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>551</v>
+        <v>172</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>552</v>
+        <v>349</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E245" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E246" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E247" s="8">
         <v>3</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>152</v>
+        <v>418</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E248" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>402</v>
+        <v>534</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E249" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>153</v>
+        <v>472</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>329</v>
+        <v>473</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E250" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E251" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>585</v>
+        <v>169</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E252" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E253" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>563</v>
+        <v>411</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>564</v>
+        <v>412</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E254" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E255" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E256" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E257" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>387</v>
+        <v>161</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E258" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>159</v>
+        <v>482</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>336</v>
+        <v>483</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E259" s="8">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>414</v>
+        <v>159</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>415</v>
+        <v>336</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E260" s="8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E261" s="8">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>423</v>
+        <v>631</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>424</v>
+        <v>575</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E262" s="8">
-        <v>3</v>
+        <v>630</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>161</v>
+        <v>665</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>338</v>
+        <v>685</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E263" s="8">
-        <v>5</v>
+        <v>630</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>162</v>
+        <v>624</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>339</v>
+        <v>573</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E264" s="8">
-        <v>4</v>
+        <v>630</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>569</v>
+        <v>663</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E265" s="8">
-        <v>3</v>
+        <v>630</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>163</v>
+        <v>600</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>340</v>
+        <v>555</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E266" s="8">
-        <v>1</v>
+        <v>626</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>164</v>
+        <v>639</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>341</v>
+        <v>584</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E267" s="8">
-        <v>83</v>
+        <v>626</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>165</v>
+        <v>596</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>342</v>
+        <v>551</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E268" s="8">
-        <v>4</v>
+        <v>626</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>493</v>
+        <v>635</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>494</v>
+        <v>585</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E269" s="8">
-        <v>3</v>
+        <v>626</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>507</v>
+        <v>609</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E270" s="8">
-        <v>6</v>
+        <v>626</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>166</v>
+        <v>648</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>343</v>
+        <v>672</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E271" s="8">
-        <v>1</v>
+        <v>626</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>167</v>
+        <v>608</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>344</v>
+        <v>578</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E272" s="8">
-        <v>3</v>
+        <v>626</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>168</v>
+        <v>647</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>345</v>
+        <v>586</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E273" s="8">
-        <v>1</v>
+        <v>626</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>388</v>
+        <v>626</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>169</v>
+        <v>651</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>346</v>
+        <v>674</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E275" s="8">
-        <v>3</v>
+        <v>626</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>170</v>
+        <v>616</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>347</v>
+        <v>580</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E276" s="8">
-        <v>3</v>
+        <v>626</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>559</v>
+        <v>655</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>560</v>
+        <v>678</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E277" s="8">
-        <v>1</v>
+        <v>626</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>171</v>
+        <v>625</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E278" s="8">
-        <v>4</v>
+        <v>626</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>172</v>
+        <v>664</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>349</v>
+        <v>587</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E279" s="8">
-        <v>1</v>
+        <v>626</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>668</v>
+        <v>597</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>611</v>
+        <v>552</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>722</v>
+        <v>588</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>661</v>
+        <v>598</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>700</v>
+        <v>637</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>709</v>
+        <v>592</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>614</v>
+        <v>566</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>622</v>
+        <v>676</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>711</v>
+        <v>593</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="F298" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C298" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="F298" s="5" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>641</v>
+        <v>602</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>647</v>
+        <v>606</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>686</v>
+        <v>645</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C307" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C307" s="9" t="s">
-        <v>664</v>
-      </c>
       <c r="F307" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>713</v>
+        <v>673</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>660</v>
+        <v>615</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>699</v>
+        <v>654</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C324" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F324" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="C325" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F325" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F326" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="C327" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F327" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C328" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F328" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="C329" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F329" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C330" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F330" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F331" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="C332" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F332" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="C333" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F333" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C334" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F334" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C335" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F335" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="B336" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="C336" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F336" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="C337" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F337" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="C338" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F338" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="C339" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F339" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="C340" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F340" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="C341" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="F341" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="F342" s="5"/>
+        <v>634</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E277 A2:B286 A342:E1048576 A278:E310">
+  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E277 A2:B286 A278:E310 A324:E1048576">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
@@ -8541,7 +8169,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E277 A2:C286 A342:E1048576 A278:E310">
+  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E277 A2:C286 A278:E310 A324:E1048576">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -8549,7 +8177,7 @@
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A311:E341">
+  <conditionalFormatting sqref="A311:E323">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
@@ -8560,7 +8188,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A311:E341">
+  <conditionalFormatting sqref="A311:E323">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>

--- a/resources/knolltextiles_info.xlsx
+++ b/resources/knolltextiles_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robcorp/dev/knoll/elf/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE46527B-EED9-7748-B5CB-9F924235A6EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5838889A-39F8-D440-B041-B34EA9652F29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1F11F375-3004-1F48-989C-76518BD1F4C5}"/>
+    <workbookView xWindow="-4780" yWindow="-23540" windowWidth="38400" windowHeight="23540" xr2:uid="{1F11F375-3004-1F48-989C-76518BD1F4C5}"/>
   </bookViews>
   <sheets>
     <sheet name="TextilesInfo" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="665">
   <si>
     <t>Alignment</t>
   </si>
@@ -1782,39 +1782,6 @@
     <t>SS</t>
   </si>
   <si>
-    <t>PERFVO</t>
-  </si>
-  <si>
-    <t>PERFAU</t>
-  </si>
-  <si>
-    <t>PERFAD</t>
-  </si>
-  <si>
-    <t>PERFES</t>
-  </si>
-  <si>
-    <t>PERFVP</t>
-  </si>
-  <si>
-    <t>PERFAL</t>
-  </si>
-  <si>
-    <t>PERFAM</t>
-  </si>
-  <si>
-    <t>PERFAQ</t>
-  </si>
-  <si>
-    <t>PERFDE</t>
-  </si>
-  <si>
-    <t>PERFFE</t>
-  </si>
-  <si>
-    <t>PERFSA</t>
-  </si>
-  <si>
     <t>Hampshire</t>
   </si>
   <si>
@@ -1938,159 +1905,6 @@
     <t>LEA</t>
   </si>
   <si>
-    <t>Andes Perforated</t>
-  </si>
-  <si>
-    <t>Alaska Perforated</t>
-  </si>
-  <si>
-    <t>Amazon Perforated</t>
-  </si>
-  <si>
-    <t>Antique Perforated</t>
-  </si>
-  <si>
-    <t>Acqua Perforated</t>
-  </si>
-  <si>
-    <t>Cascia Perforated</t>
-  </si>
-  <si>
-    <t>Copenhagen Perforated</t>
-  </si>
-  <si>
-    <t>Cervo Perforated</t>
-  </si>
-  <si>
-    <t>Derby Perforated</t>
-  </si>
-  <si>
-    <t>Ducale Perforated</t>
-  </si>
-  <si>
-    <t>Distressed Perforated</t>
-  </si>
-  <si>
-    <t>Ducale Velours Perforated</t>
-  </si>
-  <si>
-    <t>Espana Perforated</t>
-  </si>
-  <si>
-    <t>Embossed Tipped Perforated</t>
-  </si>
-  <si>
-    <t>Forte Perforated</t>
-  </si>
-  <si>
-    <t>Gemma Perforated</t>
-  </si>
-  <si>
-    <t>Hand Tipped Perforated</t>
-  </si>
-  <si>
-    <t>Lucca Perforated</t>
-  </si>
-  <si>
-    <t>Lucente Perforated</t>
-  </si>
-  <si>
-    <t>Marissa Perforated</t>
-  </si>
-  <si>
-    <t>Maremma Perforated</t>
-  </si>
-  <si>
-    <t>Portofino Perforated</t>
-  </si>
-  <si>
-    <t>Riva Perforated</t>
-  </si>
-  <si>
-    <t>Rugata Perforated</t>
-  </si>
-  <si>
-    <t>Sabrina Perforated</t>
-  </si>
-  <si>
-    <t>Saddle Perforated</t>
-  </si>
-  <si>
-    <t>Sassolino Perforated</t>
-  </si>
-  <si>
-    <t>Umbria Perforated</t>
-  </si>
-  <si>
-    <t>Volo Perforated</t>
-  </si>
-  <si>
-    <t>Velluto Pelle Perforated</t>
-  </si>
-  <si>
-    <t>Vicenza Perforated</t>
-  </si>
-  <si>
-    <t>PERFCA</t>
-  </si>
-  <si>
-    <t>PERFCO</t>
-  </si>
-  <si>
-    <t>PERFCV</t>
-  </si>
-  <si>
-    <t>PERFDL</t>
-  </si>
-  <si>
-    <t>PERFDT</t>
-  </si>
-  <si>
-    <t>PERFDV</t>
-  </si>
-  <si>
-    <t>PERFET</t>
-  </si>
-  <si>
-    <t>PERFGE</t>
-  </si>
-  <si>
-    <t>PERFHT</t>
-  </si>
-  <si>
-    <t>PERFLC</t>
-  </si>
-  <si>
-    <t>PERFLU</t>
-  </si>
-  <si>
-    <t>PERFMA</t>
-  </si>
-  <si>
-    <t>PERFMM</t>
-  </si>
-  <si>
-    <t>PERFPT</t>
-  </si>
-  <si>
-    <t>PERFRA</t>
-  </si>
-  <si>
-    <t>PERFRU</t>
-  </si>
-  <si>
-    <t>PERFSL</t>
-  </si>
-  <si>
-    <t>PERFSS</t>
-  </si>
-  <si>
-    <t>PERFUM</t>
-  </si>
-  <si>
-    <t>PERFVZ</t>
-  </si>
-  <si>
     <t>Striae Stripe</t>
   </si>
   <si>
@@ -2100,6 +1914,105 @@
     <t>Instinct</t>
   </si>
   <si>
+    <t>K1827</t>
+  </si>
+  <si>
+    <t>vz-2114-scamozzi.jpg</t>
+  </si>
+  <si>
+    <t>vo-blck-black.jpg</t>
+  </si>
+  <si>
+    <t>au-0618-chesapeake-bay.jpg</t>
+  </si>
+  <si>
+    <t>ad-6035-punta-arenas.jpg</t>
+  </si>
+  <si>
+    <t>et-0164-mountain.jpg</t>
+  </si>
+  <si>
+    <t>es-8053-datil.jpg</t>
+  </si>
+  <si>
+    <t>ht-1508-arapaho.jpg</t>
+  </si>
+  <si>
+    <t>mm-1708-talamone.jpg</t>
+  </si>
+  <si>
+    <t>vp-0515-spoleto.jpg</t>
+  </si>
+  <si>
+    <t>al-5014-snowshoe.jpg</t>
+  </si>
+  <si>
+    <t>aq-0025-tiepolo.jpg</t>
+  </si>
+  <si>
+    <t>de-0228-observatory.jpg</t>
+  </si>
+  <si>
+    <t>fe-4036-spotted-eagle.jpg</t>
+  </si>
+  <si>
+    <t>lu-1619-hydra.jpg</t>
+  </si>
+  <si>
+    <t>sa-0724-sienna.jpg</t>
+  </si>
+  <si>
+    <t>um-1462-narni.jpg</t>
+  </si>
+  <si>
+    <t>dl-0301-agua.jpg</t>
+  </si>
+  <si>
+    <t>dv-0112-brandy.jpg</t>
+  </si>
+  <si>
+    <t>ca-1251-cinnamon.jpg</t>
+  </si>
+  <si>
+    <t>cv-0042-montefalcone.jpg</t>
+  </si>
+  <si>
+    <t>co-2202-hafnia.jpg</t>
+  </si>
+  <si>
+    <t>dt-0068-monte-cassino.jpg</t>
+  </si>
+  <si>
+    <t>ge-1651-aquamarine.jpg</t>
+  </si>
+  <si>
+    <t>lu-1603-delphinus.jpg</t>
+  </si>
+  <si>
+    <t>ma-4416-quail.jpg</t>
+  </si>
+  <si>
+    <t>pt-2316-capodimonte.jpg</t>
+  </si>
+  <si>
+    <t>ra-1811-porciglione.jpg</t>
+  </si>
+  <si>
+    <t>ru-1150-val-brenta.jpg</t>
+  </si>
+  <si>
+    <t>sl-0063-bay.jpg</t>
+  </si>
+  <si>
+    <t>ss-2256-chalk.jpg</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -2112,7 +2025,7 @@
     <t>PrimarySKU</t>
   </si>
   <si>
-    <t>K1827</t>
+    <t>LeatherImage</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
@@ -2197,11 +2110,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -2271,6 +2187,96 @@
       <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2440,18 +2446,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9497D342-DCF5-B04E-9D4D-FD0938593EF7}" name="Table1" displayName="Table1" ref="A1:F323" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:F323" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F323">
-    <sortCondition ref="C1:C323"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9497D342-DCF5-B04E-9D4D-FD0938593EF7}" name="Table1" displayName="Table1" ref="A1:G292" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:G292" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G292">
+    <sortCondition ref="C1:C292"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{980A4DA0-9C12-0B4A-9BF9-1B973D26E59E}" name="Name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{9B2A817D-33ED-5D4E-9066-410B45E6F3E1}" name="PartNum" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{91A6E380-4720-3940-AA02-8066DEB83A1A}" name="Grade" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{774630C4-2007-5342-951B-8076CFCAEC7D}" name="EssntlSKUs" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{F04D1E95-8EA1-CD4C-B219-7C4913638FCC}" name="PrimarySKU" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{C7C444B3-58AD-1844-9F79-6351BC694B8B}" name="Type" dataDxfId="10"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{980A4DA0-9C12-0B4A-9BF9-1B973D26E59E}" name="Name" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{9B2A817D-33ED-5D4E-9066-410B45E6F3E1}" name="PartNum" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{91A6E380-4720-3940-AA02-8066DEB83A1A}" name="Grade" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{774630C4-2007-5342-951B-8076CFCAEC7D}" name="EssntlSKUs" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{F04D1E95-8EA1-CD4C-B219-7C4913638FCC}" name="PrimarySKU" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{C7C444B3-58AD-1844-9F79-6351BC694B8B}" name="Type" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{CA8B54DF-6DC9-9C4E-99A5-2A03DAAEB04E}" name="LeatherImage" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2755,7 +2762,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E1783B-53DF-424E-A880-BC591053FD08}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2765,30 +2772,35 @@
     <col min="2" max="3" width="7.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="12" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="4"/>
+    <col min="6" max="6" width="11.1640625" style="4"/>
+    <col min="7" max="7" width="29.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="74" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>350</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2802,175 +2814,188 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>445</v>
+        <v>374</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="E3" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>509</v>
+        <v>174</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E4" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>395</v>
+        <v>547</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="E5" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>178</v>
+        <v>396</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>422</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>423</v>
+        <v>176</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E7" s="8">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="E8" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="E9" s="8">
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D10" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="E10" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>547</v>
+        <v>422</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>423</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E11" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>437</v>
       </c>
@@ -2984,302 +3009,316 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E13" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>374</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E14" s="8">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="E15" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>8</v>
+        <v>476</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>182</v>
+        <v>477</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E16" s="8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D17" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="E17" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>520</v>
+        <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>521</v>
+        <v>182</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E18" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E19" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>2</v>
+        <v>490</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>491</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E20" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>184</v>
+        <v>509</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="E21" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E22" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E23" s="8">
+        <v>6</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="204" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E24" s="8">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="8">
-        <v>1</v>
+      <c r="E25" s="8" t="s">
+        <v>548</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>538</v>
+        <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>539</v>
+        <v>187</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E26" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>15</v>
+        <v>379</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E27" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>413</v>
+        <v>14</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>414</v>
+        <v>188</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E28" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>486</v>
+        <v>15</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>487</v>
+        <v>189</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>370</v>
@@ -3288,177 +3327,190 @@
         <v>2</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>381</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>213</v>
+        <v>382</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D30" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="E30" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D31" s="7" t="s">
+        <v>384</v>
+      </c>
       <c r="E31" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>370</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>540</v>
+        <v>388</v>
       </c>
       <c r="E32" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>384</v>
-      </c>
       <c r="E33" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>402</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E34" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E35" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>204</v>
+        <v>405</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="E36" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E37" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D38" s="7" t="s">
+        <v>392</v>
+      </c>
       <c r="E38" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>370</v>
@@ -3467,66 +3519,73 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D40" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="E40" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>218</v>
+        <v>440</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E41" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>48</v>
+        <v>441</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>223</v>
+        <v>442</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E42" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>370</v>
@@ -3535,566 +3594,598 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>514</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>515</v>
+        <v>199</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E44" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E45" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>532</v>
+        <v>27</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>533</v>
+        <v>201</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E46" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>53</v>
+        <v>626</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D47" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="E47" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>370</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="E48" s="8">
         <v>4</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>403</v>
+        <v>204</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D49" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="E49" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>441</v>
+        <v>30</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>442</v>
+        <v>205</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E50" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E51" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="E52" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E53" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="E54" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>432</v>
-      </c>
       <c r="E55" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E56" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>380</v>
+        <v>212</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E57" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="E58" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>26</v>
+        <v>486</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>200</v>
+        <v>487</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E59" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E60" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D61" s="7" t="s">
+        <v>420</v>
+      </c>
       <c r="E61" s="8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E62" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>443</v>
+        <v>41</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>444</v>
+        <v>216</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E63" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D64" s="7" t="s">
+        <v>421</v>
+      </c>
       <c r="E64" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E65" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D66" s="7" t="s">
+        <v>426</v>
+      </c>
       <c r="E66" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E67" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="D68" s="7" t="s">
+        <v>427</v>
+      </c>
       <c r="E68" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>381</v>
+        <v>47</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>382</v>
+        <v>222</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="E69" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E70" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>370</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="E71" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E72" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>439</v>
+        <v>514</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E73" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="E74" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>370</v>
@@ -4103,245 +4194,253 @@
         <v>9</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>227</v>
+        <v>531</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E76" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>405</v>
+        <v>533</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E77" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E78" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>688</v>
+        <v>54</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="E79" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>31</v>
+        <v>536</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>206</v>
+        <v>537</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E80" s="8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="E81" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E82" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>370</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="E83" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>536</v>
+        <v>57</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>537</v>
+        <v>232</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>370</v>
       </c>
       <c r="E84" s="8">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>12</v>
+        <v>443</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>186</v>
+        <v>444</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>548</v>
+      <c r="E85" s="8">
+        <v>5</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>377</v>
+        <v>58</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>378</v>
+        <v>233</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E86" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>66</v>
+        <v>367</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E87" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E88" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>68</v>
+        <v>377</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>243</v>
+        <v>378</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>368</v>
@@ -4350,154 +4449,166 @@
         <v>1</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="E90" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E91" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E92" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>484</v>
+        <v>62</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>485</v>
+        <v>237</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D93" s="7" t="s">
+        <v>450</v>
+      </c>
       <c r="E93" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>457</v>
+        <v>63</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>458</v>
+        <v>238</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E94" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>502</v>
+        <v>64</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>503</v>
+        <v>239</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E95" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E96" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>464</v>
+        <v>240</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D97" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="E97" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>510</v>
+        <v>66</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>511</v>
+        <v>241</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>368</v>
@@ -4506,270 +4617,292 @@
         <v>1</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>85</v>
+        <v>428</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>260</v>
+        <v>429</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E99" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>86</v>
+        <v>430</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>261</v>
+        <v>431</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E100" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>541</v>
+        <v>67</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>542</v>
+        <v>242</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E101" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E102" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E103" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>478</v>
+        <v>69</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>479</v>
+        <v>244</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E104" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E105" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>492</v>
+        <v>71</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D106" s="7" t="s">
+        <v>452</v>
+      </c>
       <c r="E106" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E107" s="8">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E108" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E109" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>431</v>
+        <v>249</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E110" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E111" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>481</v>
+        <v>251</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E112" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D113" s="7" t="s">
+        <v>467</v>
+      </c>
       <c r="E113" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>368</v>
@@ -4778,188 +4911,196 @@
         <v>3</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E115" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>60</v>
+        <v>478</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>235</v>
+        <v>479</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E116" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>67</v>
+        <v>480</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>242</v>
+        <v>481</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E117" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E118" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>253</v>
+        <v>485</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E119" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E120" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>469</v>
+        <v>256</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E121" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>91</v>
+        <v>492</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>266</v>
+        <v>493</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E122" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>59</v>
+        <v>457</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>234</v>
+        <v>458</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E123" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>65</v>
+        <v>496</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>240</v>
+        <v>497</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="E124" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>70</v>
+        <v>498</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>245</v>
+        <v>499</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>368</v>
@@ -4968,327 +5109,340 @@
         <v>5</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>460</v>
+        <v>257</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E126" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>255</v>
+        <v>503</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E127" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E128" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E129" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>369</v>
+        <v>462</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E130" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>373</v>
+        <v>259</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E131" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E132" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>89</v>
+        <v>510</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>264</v>
+        <v>511</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E133" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E134" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>465</v>
+        <v>86</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>466</v>
+        <v>261</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="E135" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E136" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E137" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>73</v>
+        <v>468</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>248</v>
+        <v>469</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E138" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E139" s="8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E140" s="8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>62</v>
+        <v>541</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>237</v>
+        <v>542</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>450</v>
-      </c>
       <c r="E141" s="8">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E142" s="8">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>470</v>
+        <v>92</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>471</v>
+        <v>267</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E143" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>94</v>
+        <v>470</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>269</v>
+        <v>471</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>448</v>
@@ -5297,32 +5451,34 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>447</v>
+        <v>93</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>449</v>
+        <v>268</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E145" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>448</v>
@@ -5331,15 +5487,16 @@
         <v>1</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>448</v>
@@ -5348,32 +5505,34 @@
         <v>1</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E148" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>448</v>
@@ -5382,66 +5541,70 @@
         <v>2</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E150" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E151" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E152" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>448</v>
@@ -5450,66 +5613,70 @@
         <v>3</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E154" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G154" s="10"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E155" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E156" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>448</v>
@@ -5518,66 +5685,70 @@
         <v>5</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>104</v>
+        <v>543</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>279</v>
+        <v>544</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E158" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>415</v>
+        <v>105</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>417</v>
+        <v>280</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E159" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E160" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>115</v>
+        <v>415</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>290</v>
+        <v>417</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>416</v>
@@ -5586,134 +5757,142 @@
         <v>1</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E162" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E163" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E164" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>504</v>
+        <v>110</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>505</v>
+        <v>285</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E165" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E166" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E167" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E168" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G168" s="10"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>416</v>
@@ -5722,83 +5901,88 @@
         <v>4</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G169" s="10"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E170" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E171" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E172" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E173" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>416</v>
@@ -5807,78 +5991,83 @@
         <v>5</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>116</v>
+        <v>504</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>291</v>
+        <v>505</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E175" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E176" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>109</v>
+        <v>522</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>284</v>
+        <v>523</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E177" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>522</v>
+        <v>121</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>523</v>
+        <v>296</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E178" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>122</v>
       </c>
@@ -5892,474 +6081,502 @@
         <v>15</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E180" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G180" s="10"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E181" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>526</v>
+        <v>389</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>527</v>
+        <v>391</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E182" s="8">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>123</v>
+        <v>393</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E183" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G183" s="10"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>545</v>
+        <v>125</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>546</v>
+        <v>300</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E184" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G184" s="10"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E185" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>129</v>
+        <v>494</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>304</v>
+        <v>495</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E186" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E187" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>512</v>
+        <v>127</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>513</v>
+        <v>302</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E188" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G188" s="10"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E189" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G189" s="10"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>410</v>
+        <v>501</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E190" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G190" s="10"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E191" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E192" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E193" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>518</v>
+        <v>131</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>519</v>
+        <v>306</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E194" s="8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G194" s="10"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E195" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E196" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G196" s="10"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>394</v>
+        <v>513</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E197" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>125</v>
+        <v>518</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>300</v>
+        <v>519</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E198" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G198" s="10"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E199" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G199" s="10"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E200" s="8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>389</v>
+        <v>526</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>391</v>
+        <v>527</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E201" s="8">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>595</v>
+        <v>136</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>577</v>
+        <v>311</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E202" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G202" s="10"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E203" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G203" s="10"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E204" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G204" s="10"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E205" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E206" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>435</v>
+        <v>359</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>354</v>
@@ -6368,168 +6585,178 @@
         <v>2</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E208" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>516</v>
+        <v>139</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>517</v>
+        <v>314</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E209" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G209" s="10"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E210" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E211" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E212" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G212" s="10"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>488</v>
+        <v>142</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>489</v>
+        <v>317</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E213" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>147</v>
+        <v>583</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>322</v>
+        <v>576</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E214" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G214" s="10"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E215" s="8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E216" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>142</v>
+        <v>453</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>317</v>
+        <v>454</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>354</v>
@@ -6538,49 +6765,52 @@
         <v>4</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E218" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G218" s="10"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>474</v>
+        <v>145</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>475</v>
+        <v>320</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E219" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>146</v>
+        <v>474</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>321</v>
+        <v>475</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>354</v>
@@ -6589,78 +6819,83 @@
         <v>4</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G220" s="10"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>353</v>
+        <v>146</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E221" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E222" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G222" s="10"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E223" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G223" s="10"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>686</v>
+        <v>148</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>693</v>
+        <v>323</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E224" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G224" s="10"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>149</v>
       </c>
@@ -6674,61 +6909,65 @@
         <v>8</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G225" s="10"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>137</v>
+        <v>624</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>312</v>
+        <v>627</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E226" s="8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G226" s="10"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>143</v>
+        <v>625</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E227" s="8">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G227" s="10"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>687</v>
+        <v>516</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E228" s="8">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G228" s="10"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>150</v>
       </c>
@@ -6742,78 +6981,83 @@
         <v>1</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E230" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G230" s="10"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>549</v>
+        <v>152</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E231" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G231" s="10"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>155</v>
+        <v>399</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E232" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G232" s="10"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>399</v>
+        <v>153</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E233" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G233" s="10"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>154</v>
       </c>
@@ -6827,95 +7071,101 @@
         <v>2</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G234" s="10"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>157</v>
+        <v>549</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E235" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G235" s="10"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E236" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G236" s="10"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>156</v>
+        <v>528</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>333</v>
+        <v>529</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E237" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G237" s="10"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E238" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G238" s="10"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>528</v>
+        <v>157</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>529</v>
+        <v>334</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>400</v>
       </c>
       <c r="E239" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G239" s="10"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>158</v>
       </c>
@@ -6929,134 +7179,142 @@
         <v>1</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G240" s="10"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>163</v>
+        <v>385</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E241" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G241" s="10"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E242" s="8">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G242" s="10"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E243" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G243" s="10"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>524</v>
+        <v>160</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>525</v>
+        <v>337</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E244" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G244" s="10"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>172</v>
+        <v>418</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E245" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G245" s="10"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E246" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>385</v>
+        <v>162</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E247" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G247" s="10"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>418</v>
+        <v>534</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>419</v>
+        <v>535</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>386</v>
@@ -7065,66 +7323,70 @@
         <v>3</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G248" s="10"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>535</v>
+        <v>340</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E249" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G249" s="10"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>472</v>
+        <v>164</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>473</v>
+        <v>341</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E250" s="8">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E251" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G251" s="10"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>386</v>
@@ -7133,1066 +7395,782 @@
         <v>3</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G252" s="10"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>170</v>
+        <v>482</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>347</v>
+        <v>483</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E253" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G253" s="10"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>411</v>
+        <v>166</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E254" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G254" s="10"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E255" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G255" s="10"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E256" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G256" s="10"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E257" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G257" s="10"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E258" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G258" s="10"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E259" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G259" s="10"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E260" s="8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G260" s="10"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E261" s="8">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="G261" s="10"/>
+    </row>
+    <row r="262" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>575</v>
       </c>
       <c r="C262" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G264" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="F262" s="5" t="s">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G268" s="5" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="F263" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="5" t="s">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B266" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F266" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F267" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F271" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="5" t="s">
+      <c r="B285" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="B272" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F272" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F273" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F274" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F275" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F276" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="5" t="s">
+      <c r="B290" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G290" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="B277" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F277" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F278" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F279" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="F280" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="F281" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F283" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F284" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F285" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F286" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F287" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="4" t="s">
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F288" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C289" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F289" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C290" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F290" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="4" t="s">
-        <v>653</v>
-      </c>
       <c r="B291" s="4" t="s">
-        <v>676</v>
+        <v>581</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F293" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C294" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F294" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="C295" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F295" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C296" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="F296" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="C297" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="F297" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C298" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="F298" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="F299" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C300" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F300" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F301" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C302" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F302" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="C303" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F303" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F304" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F305" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C306" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F306" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="C307" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F307" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="C308" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F308" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="C309" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F309" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F310" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F311" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="C312" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F312" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="C313" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F313" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C314" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F314" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="C315" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F315" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C316" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F316" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="4" t="s">
+      <c r="G292" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="B317" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="C317" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F317" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C318" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F318" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="C319" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F319" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F320" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="C321" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F321" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F322" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F323" s="5" t="s">
-        <v>634</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E277 A2:B286 A278:E310 A324:E1048576">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E261 A2:B261 A280:E1048576">
+    <cfRule type="cellIs" dxfId="19" priority="40" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="41" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="42" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E277 A2:C286 A278:E310 A324:E1048576">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E261 A2:C261 A280:E1048576">
+    <cfRule type="cellIs" dxfId="16" priority="38" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="39" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A311:E323">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="A262:E279">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="30" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A311:E323">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A262:E279">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G261">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+      <formula>"Limited Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G261">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262:G292">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>"Limited Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262:G292">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/knolltextiles_info.xlsx
+++ b/resources/knolltextiles_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robcorp/dev/knoll/elf/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EBF0BED-6CD8-3F41-9C8A-943DC96D10C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC9DEB1F-829A-374B-8F96-03621162C101}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{72FEBA04-D8D4-1346-9D78-E07729C254EC}"/>
+    <workbookView xWindow="-4780" yWindow="-23540" windowWidth="38400" windowHeight="23540" xr2:uid="{BAA11FA2-89BB-D24C-A1A7-B81561103F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="TextilesInfo" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="682">
   <si>
     <t>Grade</t>
   </si>
@@ -210,6 +210,33 @@
     <t>K21251, K21252, K21253, K21254, K21255, K21256, K21257, K21258, K21259, K212510, K212511, K212512, K212513, K212514</t>
   </si>
   <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>K2263</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>W1077</t>
+  </si>
+  <si>
+    <t>W10771, W10772, W10774, W10775, W10776, W10777, W10778, W10779, W107710, W107711, W107712, W107713</t>
+  </si>
+  <si>
+    <t>Reflect</t>
+  </si>
+  <si>
+    <t>W884</t>
+  </si>
+  <si>
+    <t>W8841A, W8842A, W8843A, W8844A, W8845A, W8846A, W8847A, W8848A, W8846A, W88410A, W88413A, W88414A</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
     <t>Abacus</t>
   </si>
   <si>
@@ -624,6 +651,12 @@
     <t>K1448</t>
   </si>
   <si>
+    <t>Dottie</t>
+  </si>
+  <si>
+    <t>K2259</t>
+  </si>
+  <si>
     <t>Atlas</t>
   </si>
   <si>
@@ -1080,6 +1113,12 @@
     <t>K113</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>K2251</t>
+  </si>
+  <si>
     <t>Aegean</t>
   </si>
   <si>
@@ -1578,6 +1617,12 @@
     <t>K2208</t>
   </si>
   <si>
+    <t>Twist Tie</t>
+  </si>
+  <si>
+    <t>K2264</t>
+  </si>
+  <si>
     <t>Aswan</t>
   </si>
   <si>
@@ -1821,7 +1866,7 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>AM</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>null</t>
@@ -2013,28 +2058,10 @@
     <t>ss-2256-chalk.jpg</t>
   </si>
   <si>
-    <t>Infinite</t>
-  </si>
-  <si>
-    <t>K2263</t>
-  </si>
-  <si>
-    <t>Dottie</t>
-  </si>
-  <si>
-    <t>K2259</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>K2251</t>
-  </si>
-  <si>
-    <t>Twist Tie</t>
-  </si>
-  <si>
-    <t>K2264</t>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
   <si>
     <t>Name</t>
@@ -2462,19 +2489,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2DEF3A-A143-CD4A-A004-09CD8BC1B5D2}" name="Table1" displayName="Table1" ref="A1:G296" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:G296" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G296">
-    <sortCondition ref="C1:C296"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76C0CFFF-DBC1-2F4D-9290-18506F7AA669}" name="Table1" displayName="Table1" ref="A1:G311" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:G311" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G311">
+    <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C5F3F621-F841-D048-A33C-FEBB6069EC09}" name="Name" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{E8C3EB62-3816-464A-A7DD-D9E2122AA208}" name="PartNum" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{7E5C33A9-0FD0-9D40-8E4D-F718FD2F7357}" name="Grade" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{E933EE0D-521D-FC42-947D-672EA8065821}" name="EssntlSKUs" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{5148FB12-F570-4F44-AA37-0F6E9B4D81F6}" name="PrimarySKU" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{5D3C41C3-0A79-D842-BE3C-E6764580E6E0}" name="Type" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{2398571B-06A4-3F4D-B9F7-19E8781183AC}" name="LeatherImage" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{E358A903-F8E3-6047-97CD-F7F8FBC17744}" name="Name" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{12ADD32E-B1FF-DA4E-BBF5-BC50E185836B}" name="PartNum" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{13884A45-6791-0B45-B956-3363F0E01A8D}" name="Grade" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{25052439-5F1A-F44A-83AD-2B164A67698D}" name="EssntlSKUs" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{A3838B46-06B7-534D-A2CF-23685870D5C8}" name="PrimarySKU" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{3135D594-DAEE-294D-AD52-67145F213391}" name="Type" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{F112122F-2492-D843-A0EC-A4C9DE77E696}" name="LeatherImage" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2776,10 +2803,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DF2CCF-94AB-F94D-A58F-F5E95A90EA99}">
-  <dimension ref="A1:G296"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DE13D6-2101-2649-A860-0E14CCA0A0E3}">
+  <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2794,25 +2823,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="74" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3264,64 +3293,68 @@
         <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="E26" s="8">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="8">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="8">
-        <v>5</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="8">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>5</v>
@@ -3330,86 +3363,77 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="E29" s="8">
+        <v>6</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="8">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="8">
         <v>2</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="8">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="8">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="8">
-        <v>4</v>
-      </c>
       <c r="F32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -3417,7 +3441,10 @@
         <v>81</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E33" s="8">
         <v>7</v>
@@ -3427,36 +3454,42 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="E34" s="8">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="8">
         <v>4</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>5</v>
@@ -3465,16 +3498,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E36" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>5</v>
@@ -3483,37 +3516,34 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E37" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E38" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>5</v>
@@ -3522,55 +3552,55 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E39" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E40" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E41" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>5</v>
@@ -3579,34 +3609,37 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E42" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="E43" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>5</v>
@@ -3615,16 +3648,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E44" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>5</v>
@@ -3633,16 +3666,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E45" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>5</v>
@@ -3651,86 +3684,77 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E46" s="8">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="8">
+        <v>4</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="8">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="8">
         <v>6</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="8">
-        <v>10</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="8">
-        <v>4</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="8">
-        <v>3</v>
-      </c>
       <c r="F49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>119</v>
       </c>
@@ -3738,46 +3762,55 @@
         <v>120</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="E50" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="E51" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E52" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>5</v>
@@ -3786,16 +3819,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E53" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>5</v>
@@ -3804,16 +3837,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E54" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>5</v>
@@ -3822,16 +3855,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E55" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>5</v>
@@ -3840,16 +3873,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E56" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>5</v>
@@ -3858,16 +3891,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E57" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>5</v>
@@ -3876,16 +3909,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E58" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>5</v>
@@ -3894,16 +3927,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E59" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>5</v>
@@ -3912,37 +3945,34 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E60" s="8">
+        <v>6</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="8">
         <v>2</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E61" s="8">
-        <v>12</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>5</v>
@@ -3951,16 +3981,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E62" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>5</v>
@@ -3969,37 +3999,37 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E63" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E64" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>5</v>
@@ -4008,13 +4038,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E65" s="8">
         <v>3</v>
@@ -4024,18 +4054,15 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="E66" s="8">
         <v>4</v>
@@ -4045,57 +4072,60 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="E67" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="E68" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="E69" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>5</v>
@@ -4104,16 +4134,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E70" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>5</v>
@@ -4122,19 +4152,19 @@
     </row>
     <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E71" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>5</v>
@@ -4143,16 +4173,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E72" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>5</v>
@@ -4161,13 +4191,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E73" s="8">
         <v>3</v>
@@ -4177,18 +4207,21 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="E74" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>5</v>
@@ -4197,16 +4230,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E75" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>5</v>
@@ -4215,16 +4248,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E76" s="8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>5</v>
@@ -4233,13 +4266,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E77" s="8">
         <v>3</v>
@@ -4251,16 +4284,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E78" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>5</v>
@@ -4269,16 +4302,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E79" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>5</v>
@@ -4287,16 +4320,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E80" s="8">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>5</v>
@@ -4305,16 +4338,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E81" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>5</v>
@@ -4323,37 +4356,34 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E82" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="E83" s="8">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>5</v>
@@ -4362,16 +4392,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E84" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>5</v>
@@ -4380,34 +4410,37 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E85" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>199</v>
+        <v>70</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="E86" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>5</v>
@@ -4416,16 +4449,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="E87" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>5</v>
@@ -4434,16 +4467,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="E88" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>5</v>
@@ -4452,16 +4485,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="E89" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>5</v>
@@ -4470,16 +4503,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E90" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>5</v>
@@ -4488,16 +4521,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E91" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>5</v>
@@ -4506,37 +4539,34 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="E92" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E93" s="8">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>5</v>
@@ -4545,16 +4575,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E94" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>5</v>
@@ -4563,16 +4593,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E95" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>5</v>
@@ -4581,37 +4611,37 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E96" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E97" s="8">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>5</v>
@@ -4620,16 +4650,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E98" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>5</v>
@@ -4638,13 +4668,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E99" s="8">
         <v>3</v>
@@ -4656,34 +4686,37 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E100" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="E101" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>5</v>
@@ -4692,13 +4725,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E102" s="8">
         <v>1</v>
@@ -4710,16 +4743,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E103" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>5</v>
@@ -4728,16 +4761,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E104" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>5</v>
@@ -4746,34 +4779,31 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E105" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="E106" s="8">
         <v>1</v>
@@ -4785,16 +4815,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E107" s="8">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>5</v>
@@ -4803,16 +4833,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E108" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>5</v>
@@ -4821,13 +4851,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E109" s="8">
         <v>5</v>
@@ -4837,18 +4867,21 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="E110" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>5</v>
@@ -4857,16 +4890,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E111" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>5</v>
@@ -4875,37 +4908,34 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E112" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="E113" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>5</v>
@@ -4914,16 +4944,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E114" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>5</v>
@@ -4932,16 +4962,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E115" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>5</v>
@@ -4950,34 +4980,37 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E116" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="E117" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>5</v>
@@ -4986,16 +5019,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E118" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>5</v>
@@ -5004,16 +5037,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E119" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>5</v>
@@ -5022,16 +5055,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E120" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>5</v>
@@ -5040,16 +5073,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E121" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>5</v>
@@ -5058,16 +5091,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E122" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>5</v>
@@ -5076,13 +5109,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E123" s="8">
         <v>1</v>
@@ -5094,16 +5127,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E124" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>5</v>
@@ -5112,16 +5145,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E125" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>5</v>
@@ -5130,16 +5163,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E126" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>5</v>
@@ -5148,13 +5181,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E127" s="8">
         <v>1</v>
@@ -5166,16 +5199,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E128" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>5</v>
@@ -5184,16 +5217,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E129" s="8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>5</v>
@@ -5202,16 +5235,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E130" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>5</v>
@@ -5220,16 +5253,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E131" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>5</v>
@@ -5238,16 +5271,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E132" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>5</v>
@@ -5256,16 +5289,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E133" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>5</v>
@@ -5274,13 +5307,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E134" s="8">
         <v>1</v>
@@ -5292,16 +5325,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E135" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>5</v>
@@ -5310,16 +5343,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E136" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>5</v>
@@ -5328,16 +5361,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E137" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>5</v>
@@ -5346,16 +5379,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E138" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>5</v>
@@ -5364,16 +5397,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E139" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>5</v>
@@ -5382,13 +5415,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E140" s="8">
         <v>3</v>
@@ -5400,16 +5433,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E141" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>5</v>
@@ -5418,13 +5451,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E142" s="8">
         <v>4</v>
@@ -5436,16 +5469,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="E143" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>5</v>
@@ -5454,16 +5487,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="E144" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>5</v>
@@ -5472,16 +5505,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="E145" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>5</v>
@@ -5490,16 +5523,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="E146" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>5</v>
@@ -5508,16 +5541,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E147" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>5</v>
@@ -5526,16 +5559,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E148" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>5</v>
@@ -5544,16 +5577,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="E149" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>5</v>
@@ -5562,16 +5595,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E150" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>5</v>
@@ -5580,13 +5613,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E151" s="8">
         <v>1</v>
@@ -5598,13 +5631,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E152" s="8">
         <v>5</v>
@@ -5616,16 +5649,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E153" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>5</v>
@@ -5634,16 +5667,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E154" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>5</v>
@@ -5652,16 +5685,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E155" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>5</v>
@@ -5670,16 +5703,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E156" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>5</v>
@@ -5688,16 +5721,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E157" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>5</v>
@@ -5706,16 +5739,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E158" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>5</v>
@@ -5724,16 +5757,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E159" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>5</v>
@@ -5742,16 +5775,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E160" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>5</v>
@@ -5760,16 +5793,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E161" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>5</v>
@@ -5778,16 +5811,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E162" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>5</v>
@@ -5796,16 +5829,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E163" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>5</v>
@@ -5814,16 +5847,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E164" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>5</v>
@@ -5832,16 +5865,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E165" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>5</v>
@@ -5850,16 +5883,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B166" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="E166" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>5</v>
@@ -5868,16 +5901,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E167" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>5</v>
@@ -5886,16 +5919,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E168" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>5</v>
@@ -5904,16 +5937,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E169" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>5</v>
@@ -5922,16 +5955,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E170" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>5</v>
@@ -5940,16 +5973,16 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E171" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>5</v>
@@ -5958,16 +5991,16 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E172" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>5</v>
@@ -5976,13 +6009,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E173" s="8">
         <v>1</v>
@@ -5994,16 +6027,16 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E174" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>5</v>
@@ -6012,16 +6045,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E175" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>5</v>
@@ -6030,16 +6063,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E176" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>5</v>
@@ -6048,16 +6081,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E177" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>5</v>
@@ -6066,16 +6099,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E178" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>5</v>
@@ -6084,16 +6117,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E179" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>5</v>
@@ -6102,13 +6135,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="E180" s="8">
         <v>2</v>
@@ -6120,16 +6153,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="E181" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>5</v>
@@ -6138,16 +6171,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="E182" s="8">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>5</v>
@@ -6156,16 +6189,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="E183" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>5</v>
@@ -6174,16 +6207,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="E184" s="8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>5</v>
@@ -6192,16 +6225,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E185" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>5</v>
@@ -6210,16 +6243,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E186" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>5</v>
@@ -6228,16 +6261,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="E187" s="8">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>5</v>
@@ -6246,16 +6279,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E188" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>5</v>
@@ -6264,16 +6297,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E189" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>5</v>
@@ -6282,16 +6315,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E190" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>5</v>
@@ -6300,16 +6333,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E191" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>5</v>
@@ -6318,16 +6351,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E192" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>5</v>
@@ -6336,16 +6369,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E193" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>5</v>
@@ -6354,16 +6387,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E194" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>5</v>
@@ -6372,13 +6405,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E195" s="8">
         <v>3</v>
@@ -6390,16 +6423,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E196" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>5</v>
@@ -6408,13 +6441,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E197" s="8">
         <v>3</v>
@@ -6426,16 +6459,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E198" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>5</v>
@@ -6444,16 +6477,16 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E199" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>5</v>
@@ -6462,16 +6495,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E200" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>5</v>
@@ -6480,16 +6513,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E201" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>5</v>
@@ -6498,13 +6531,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="E202" s="8">
         <v>3</v>
@@ -6516,16 +6549,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="E203" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>5</v>
@@ -6534,16 +6567,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="E204" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>5</v>
@@ -6552,16 +6585,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="E205" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>5</v>
@@ -6570,16 +6603,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="E206" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>5</v>
@@ -6588,16 +6621,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E207" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>5</v>
@@ -6606,16 +6639,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E208" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>5</v>
@@ -6624,16 +6657,16 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>439</v>
-      </c>
       <c r="E209" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>5</v>
@@ -6642,16 +6675,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E210" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>5</v>
@@ -6660,16 +6693,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E211" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>5</v>
@@ -6678,13 +6711,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E212" s="8">
         <v>2</v>
@@ -6696,16 +6729,16 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E213" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>5</v>
@@ -6714,16 +6747,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E214" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>5</v>
@@ -6732,16 +6765,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E215" s="8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>5</v>
@@ -6750,16 +6783,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E216" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>5</v>
@@ -6768,16 +6801,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E217" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>5</v>
@@ -6786,16 +6819,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E218" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>5</v>
@@ -6804,16 +6837,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E219" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>5</v>
@@ -6822,16 +6855,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E220" s="8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>5</v>
@@ -6840,16 +6873,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E221" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>5</v>
@@ -6858,16 +6891,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E222" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>5</v>
@@ -6876,16 +6909,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E223" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>5</v>
@@ -6894,16 +6927,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E224" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>5</v>
@@ -6912,16 +6945,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E225" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>5</v>
@@ -6930,16 +6963,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E226" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>5</v>
@@ -6948,16 +6981,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E227" s="8">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>5</v>
@@ -6966,16 +6999,16 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E228" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>5</v>
@@ -6984,13 +7017,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E229" s="8">
         <v>1</v>
@@ -7002,16 +7035,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E230" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>5</v>
@@ -7020,16 +7053,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E231" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>5</v>
@@ -7038,16 +7071,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E232" s="8">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>5</v>
@@ -7056,16 +7089,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="E233" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>5</v>
@@ -7074,16 +7107,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E234" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>5</v>
@@ -7092,16 +7125,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E235" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>5</v>
@@ -7110,16 +7143,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C236" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>494</v>
-      </c>
       <c r="E236" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>5</v>
@@ -7128,16 +7161,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E237" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>5</v>
@@ -7146,16 +7179,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E238" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>5</v>
@@ -7164,13 +7197,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E239" s="8">
         <v>2</v>
@@ -7182,13 +7215,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E240" s="8">
         <v>1</v>
@@ -7200,16 +7233,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E241" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>5</v>
@@ -7218,16 +7251,16 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E242" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>5</v>
@@ -7236,16 +7269,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E243" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>5</v>
@@ -7254,13 +7287,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E244" s="8">
         <v>2</v>
@@ -7272,13 +7305,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E245" s="8">
         <v>3</v>
@@ -7290,16 +7323,16 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E246" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>5</v>
@@ -7308,16 +7341,16 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E247" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>5</v>
@@ -7326,16 +7359,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B248" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>517</v>
-      </c>
       <c r="E248" s="8">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>5</v>
@@ -7344,16 +7377,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E249" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>5</v>
@@ -7362,16 +7395,16 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E250" s="8">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>5</v>
@@ -7380,16 +7413,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E251" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>5</v>
@@ -7398,16 +7431,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E252" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>5</v>
@@ -7416,16 +7449,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E253" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>5</v>
@@ -7434,16 +7467,16 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E254" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>5</v>
@@ -7452,16 +7485,16 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E255" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>5</v>
@@ -7470,16 +7503,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E256" s="8">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>5</v>
@@ -7488,16 +7521,16 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E257" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>5</v>
@@ -7506,13 +7539,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E258" s="8">
         <v>3</v>
@@ -7524,16 +7557,16 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E259" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>5</v>
@@ -7542,16 +7575,16 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E260" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>5</v>
@@ -7560,620 +7593,837 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E261" s="8">
+        <v>3</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G261" s="5"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E262" s="8">
         <v>1</v>
       </c>
-      <c r="F261" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G261" s="5"/>
-    </row>
-    <row r="262" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A262" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="D262" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="F262" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G262" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G262" s="5"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="5" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
+      <c r="B263" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="C263" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E263" s="8">
+        <v>3</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G263" s="5"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C263" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="D263" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="F263" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G263" s="5" t="s">
+      <c r="B264" s="5" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" s="4" t="s">
+      <c r="C264" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E264" s="8">
+        <v>3</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G264" s="5"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B265" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="C264" s="9" t="s">
+      <c r="C265" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E265" s="8">
+        <v>1</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G265" s="5"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="F264" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G264" s="5" t="s">
+      <c r="B266" s="5" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
+      <c r="C266" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E266" s="8">
+        <v>4</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G266" s="5"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B267" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C265" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G265" s="5" t="s">
+      <c r="C267" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E267" s="8">
+        <v>1</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G267" s="5"/>
+    </row>
+    <row r="268" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A268" s="5" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" s="4" t="s">
+      <c r="B268" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="C268" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C266" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F266" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G266" s="5" t="s">
+      <c r="D268" s="7" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" s="4" t="s">
+      <c r="F268" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="G268" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C267" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F267" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G267" s="5" t="s">
+    </row>
+    <row r="269" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
+      <c r="B269" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="C269" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G269" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C268" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G268" s="5" t="s">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" s="4" t="s">
+      <c r="B270" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="C270" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="C269" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G269" s="5" t="s">
+      <c r="F270" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G270" s="5" t="s">
         <v>587</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G270" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C272" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G272" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="F272" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G272" s="5" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="C276" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G276" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="F275" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G275" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="F276" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G276" s="5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C280" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G280" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="F280" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G281" s="4" t="s">
-        <v>626</v>
+        <v>579</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>629</v>
+        <v>579</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G283" s="4" t="s">
-        <v>632</v>
+        <v>579</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>635</v>
+        <v>579</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G285" s="4" t="s">
-        <v>638</v>
+        <v>579</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B293" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C292" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="F292" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="G292" s="4" t="s">
+      <c r="C293" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G293" s="4" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" s="5" t="s">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B294" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F293" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G293" s="5"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" s="5" t="s">
+      <c r="C294" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G294" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="B294" s="5" t="s">
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="C294" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F294" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G294" s="5"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" s="5" t="s">
+      <c r="B295" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="B295" s="5" t="s">
+      <c r="C295" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G295" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C295" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F295" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G295" s="5"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B296" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C296" s="6" t="s">
-        <v>494</v>
+      <c r="C296" s="9" t="s">
+        <v>640</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G296" s="5"/>
+        <v>579</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E261 A2:B261 A280:E1048576">
+  <conditionalFormatting sqref="A1:E1 D92:D93 D94:E261 A2:B261 A280:E1048576 D2:E91">
     <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
@@ -8184,7 +8434,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1 D2:E91 D92:D93 D94:E261 A2:C261 A280:E1048576">
+  <conditionalFormatting sqref="A1:E1 D92:D93 D94:E261 A2:C261 A280:E1048576 D2:E91">
     <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -8230,7 +8480,7 @@
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G262:G296">
+  <conditionalFormatting sqref="G262:G297">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
@@ -8241,7 +8491,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G262:G296">
+  <conditionalFormatting sqref="G262:G297">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>

--- a/resources/knolltextiles_info.xlsx
+++ b/resources/knolltextiles_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robcorp/dev/knoll/elf/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC9DEB1F-829A-374B-8F96-03621162C101}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A479CB6-033A-1042-983C-093BD24739C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4780" yWindow="-23540" windowWidth="38400" windowHeight="23540" xr2:uid="{BAA11FA2-89BB-D24C-A1A7-B81561103F1B}"/>
+    <workbookView xWindow="-4780" yWindow="-23540" windowWidth="38400" windowHeight="23540" xr2:uid="{55734EE2-664A-9545-8E60-3A39DB93993C}"/>
   </bookViews>
   <sheets>
     <sheet name="TextilesInfo" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="677">
   <si>
     <t>Grade</t>
   </si>
@@ -1863,15 +1863,6 @@
     <t>al-5014-snowshoe.jpg</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Antique</t>
   </si>
   <si>
@@ -2056,12 +2047,6 @@
   </si>
   <si>
     <t>ss-2256-chalk.jpg</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
   <si>
     <t>Name</t>
@@ -2165,77 +2150,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -2489,19 +2404,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76C0CFFF-DBC1-2F4D-9290-18506F7AA669}" name="Table1" displayName="Table1" ref="A1:G311" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:G311" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G311">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B5BB322-A43A-0146-BF8A-B0252631E6DA}" name="Table1" displayName="Table1" ref="A1:G297" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:G297" xr:uid="{7513FA51-9AC2-F844-B831-5FE05763A85D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G297">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E358A903-F8E3-6047-97CD-F7F8FBC17744}" name="Name" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{12ADD32E-B1FF-DA4E-BBF5-BC50E185836B}" name="PartNum" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{13884A45-6791-0B45-B956-3363F0E01A8D}" name="Grade" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{25052439-5F1A-F44A-83AD-2B164A67698D}" name="EssntlSKUs" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{A3838B46-06B7-534D-A2CF-23685870D5C8}" name="PrimarySKU" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{3135D594-DAEE-294D-AD52-67145F213391}" name="Type" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{F112122F-2492-D843-A0EC-A4C9DE77E696}" name="LeatherImage" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{7E262240-4139-E247-81F3-8D1598553645}" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{406ED010-E6F0-4F46-B5DB-0E92C699A2DE}" name="PartNum" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{0B385DC1-B76E-174F-A3F8-8098F99B8878}" name="Grade" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{20A9E80D-DE56-C444-BBDE-96F66E8D1686}" name="EssntlSKUs" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{91445DD5-4C6B-2740-9888-7CC4D9E48EEB}" name="PrimarySKU" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{290B1904-C4E3-B34F-B952-C2DDF783F907}" name="Type" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{36719C63-0CA8-2443-8D06-2D59B03AE6FF}" name="LeatherImage" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2803,12 +2718,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DE13D6-2101-2649-A860-0E14CCA0A0E3}">
-  <dimension ref="A1:G311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867D6400-C000-DF4E-A762-8AD07353319E}">
+  <dimension ref="A1:G297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2823,25 +2736,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="74" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8006,29 +7919,29 @@
         <v>629</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>579</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="G285" s="5" t="s">
+      <c r="G285" s="4" t="s">
         <v>634</v>
       </c>
     </row>
@@ -8040,24 +7953,24 @@
         <v>636</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F286" s="5" t="s">
         <v>579</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F287" s="5" t="s">
         <v>579</v>
@@ -8074,7 +7987,7 @@
         <v>643</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F288" s="5" t="s">
         <v>579</v>
@@ -8091,7 +8004,7 @@
         <v>646</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F289" s="5" t="s">
         <v>579</v>
@@ -8108,7 +8021,7 @@
         <v>649</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F290" s="5" t="s">
         <v>579</v>
@@ -8125,7 +8038,7 @@
         <v>652</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>579</v>
@@ -8142,7 +8055,7 @@
         <v>655</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F292" s="5" t="s">
         <v>579</v>
@@ -8159,7 +8072,7 @@
         <v>658</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F293" s="5" t="s">
         <v>579</v>
@@ -8176,7 +8089,7 @@
         <v>661</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F294" s="5" t="s">
         <v>579</v>
@@ -8193,7 +8106,7 @@
         <v>664</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F295" s="5" t="s">
         <v>579</v>
@@ -8210,7 +8123,7 @@
         <v>667</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F296" s="5" t="s">
         <v>579</v>
@@ -8227,7 +8140,7 @@
         <v>670</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F297" s="5" t="s">
         <v>579</v>
@@ -8236,232 +8149,8 @@
         <v>671</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="C298" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="F298" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="G298" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F299" s="5"/>
-      <c r="G299" s="5"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F300" s="5"/>
-      <c r="G300" s="5"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A301" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F301" s="5"/>
-      <c r="G301" s="5"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F302" s="5"/>
-      <c r="G302" s="5"/>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F303" s="5"/>
-      <c r="G303" s="5"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F304" s="5"/>
-      <c r="G304" s="5"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A305" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F305" s="5"/>
-      <c r="G305" s="5"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F306" s="5"/>
-      <c r="G306" s="5"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A307" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F307" s="5"/>
-      <c r="G307" s="5"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F308" s="5"/>
-      <c r="G308" s="5"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F309" s="5"/>
-      <c r="G309" s="5"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A310" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F310" s="5"/>
-      <c r="G310" s="5"/>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A311" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F311" s="5"/>
-      <c r="G311" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1 D92:D93 D94:E261 A2:B261 A280:E1048576 D2:E91">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
-      <formula>"Limited Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1 D92:D93 D94:E261 A2:C261 A280:E1048576 D2:E91">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A262:E279">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"Limited Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A262:E279">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G261">
+  <conditionalFormatting sqref="A1:E1 D92:D93 D94:E261 A2:B261 D2:E91 G262:G296 A262:E1048576">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
@@ -8472,7 +8161,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G261">
+  <conditionalFormatting sqref="A1:E1 D92:D93 D94:E261 A2:C261 D2:E91 G262:G296 A262:E1048576">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -8480,7 +8169,7 @@
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G262:G297">
+  <conditionalFormatting sqref="G261">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Limited Yes"</formula>
     </cfRule>
@@ -8491,7 +8180,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G262:G297">
+  <conditionalFormatting sqref="G261">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
